--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_16ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_16ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -6627,28 +6627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1785.173863469633</v>
+        <v>2235.276025841613</v>
       </c>
       <c r="AB2" t="n">
-        <v>2442.553636311666</v>
+        <v>3058.403271975144</v>
       </c>
       <c r="AC2" t="n">
-        <v>2209.43974540764</v>
+        <v>2766.513556193672</v>
       </c>
       <c r="AD2" t="n">
-        <v>1785173.863469633</v>
+        <v>2235276.025841613</v>
       </c>
       <c r="AE2" t="n">
-        <v>2442553.636311666</v>
+        <v>3058403.271975144</v>
       </c>
       <c r="AF2" t="n">
         <v>1.755349993353287e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>90</v>
+        <v>89.40104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2209439.74540764</v>
+        <v>2766513.556193672</v>
       </c>
     </row>
     <row r="3">
@@ -6733,28 +6733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1302.36981990757</v>
+        <v>1654.586769576063</v>
       </c>
       <c r="AB3" t="n">
-        <v>1781.959844098915</v>
+        <v>2263.8786133505</v>
       </c>
       <c r="AC3" t="n">
-        <v>1611.892097574463</v>
+        <v>2047.817215865917</v>
       </c>
       <c r="AD3" t="n">
-        <v>1302369.81990757</v>
+        <v>1654586.769576063</v>
       </c>
       <c r="AE3" t="n">
-        <v>1781959.844098915</v>
+        <v>2263878.613350499</v>
       </c>
       <c r="AF3" t="n">
         <v>2.263120763962779e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>70</v>
+        <v>69.34895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1611892.097574463</v>
+        <v>2047817.215865917</v>
       </c>
     </row>
     <row r="4">
@@ -6839,28 +6839,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1171.675476435252</v>
+        <v>1494.628347519186</v>
       </c>
       <c r="AB4" t="n">
-        <v>1603.138077532588</v>
+        <v>2045.016443424748</v>
       </c>
       <c r="AC4" t="n">
-        <v>1450.136829431301</v>
+        <v>1849.842944262894</v>
       </c>
       <c r="AD4" t="n">
-        <v>1171675.476435252</v>
+        <v>1494628.347519186</v>
       </c>
       <c r="AE4" t="n">
-        <v>1603138.077532588</v>
+        <v>2045016.443424748</v>
       </c>
       <c r="AF4" t="n">
         <v>2.459659693690678e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>64</v>
+        <v>63.80208333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1450136.829431301</v>
+        <v>1849842.944262894</v>
       </c>
     </row>
     <row r="5">
@@ -6945,28 +6945,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1118.579220506913</v>
+        <v>1421.921894661226</v>
       </c>
       <c r="AB5" t="n">
-        <v>1530.489437729944</v>
+        <v>1945.536267042167</v>
       </c>
       <c r="AC5" t="n">
-        <v>1384.421673848414</v>
+        <v>1759.857016292963</v>
       </c>
       <c r="AD5" t="n">
-        <v>1118579.220506913</v>
+        <v>1421921.894661226</v>
       </c>
       <c r="AE5" t="n">
-        <v>1530489.437729944</v>
+        <v>1945536.267042167</v>
       </c>
       <c r="AF5" t="n">
         <v>2.564588941362029e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>62</v>
+        <v>61.19791666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1384421.673848414</v>
+        <v>1759857.016292963</v>
       </c>
     </row>
     <row r="6">
@@ -7051,28 +7051,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1077.676585689445</v>
+        <v>1381.052414232682</v>
       </c>
       <c r="AB6" t="n">
-        <v>1474.524648275791</v>
+        <v>1889.616840885607</v>
       </c>
       <c r="AC6" t="n">
-        <v>1333.79808535269</v>
+        <v>1709.274461685377</v>
       </c>
       <c r="AD6" t="n">
-        <v>1077676.585689445</v>
+        <v>1381052.414232682</v>
       </c>
       <c r="AE6" t="n">
-        <v>1474524.648275791</v>
+        <v>1889616.840885608</v>
       </c>
       <c r="AF6" t="n">
         <v>2.633055124793766e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>60</v>
+        <v>59.609375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1333798.08535269</v>
+        <v>1709274.461685377</v>
       </c>
     </row>
     <row r="7">
@@ -7157,28 +7157,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1056.368776901051</v>
+        <v>1359.710440025507</v>
       </c>
       <c r="AB7" t="n">
-        <v>1445.37036425733</v>
+        <v>1860.4158102339</v>
       </c>
       <c r="AC7" t="n">
-        <v>1307.426245282657</v>
+        <v>1682.860336415165</v>
       </c>
       <c r="AD7" t="n">
-        <v>1056368.776901051</v>
+        <v>1359710.440025507</v>
       </c>
       <c r="AE7" t="n">
-        <v>1445370.364257331</v>
+        <v>1860415.8102339</v>
       </c>
       <c r="AF7" t="n">
         <v>2.670844118642092e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>59</v>
+        <v>58.77604166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1307426.245282657</v>
+        <v>1682860.336415165</v>
       </c>
     </row>
     <row r="8">
@@ -7263,28 +7263,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1035.041040125098</v>
+        <v>1328.628347397987</v>
       </c>
       <c r="AB8" t="n">
-        <v>1416.188813887131</v>
+        <v>1817.887919855777</v>
       </c>
       <c r="AC8" t="n">
-        <v>1281.029741123227</v>
+        <v>1644.391248206461</v>
       </c>
       <c r="AD8" t="n">
-        <v>1035041.040125098</v>
+        <v>1328628.347397987</v>
       </c>
       <c r="AE8" t="n">
-        <v>1416188.813887131</v>
+        <v>1817887.919855777</v>
       </c>
       <c r="AF8" t="n">
         <v>2.707849608630724e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>58</v>
+        <v>57.96875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1281029.741123227</v>
+        <v>1644391.248206461</v>
       </c>
     </row>
     <row r="9">
@@ -7369,28 +7369,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1027.339168143323</v>
+        <v>1320.926475416212</v>
       </c>
       <c r="AB9" t="n">
-        <v>1405.650772859057</v>
+        <v>1807.349878827702</v>
       </c>
       <c r="AC9" t="n">
-        <v>1271.497435940638</v>
+        <v>1634.858943023872</v>
       </c>
       <c r="AD9" t="n">
-        <v>1027339.168143323</v>
+        <v>1320926.475416212</v>
       </c>
       <c r="AE9" t="n">
-        <v>1405650.772859056</v>
+        <v>1807349.878827702</v>
       </c>
       <c r="AF9" t="n">
         <v>2.72834124803811e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>58</v>
+        <v>57.52604166666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1271497.435940638</v>
+        <v>1634858.943023872</v>
       </c>
     </row>
     <row r="10">
@@ -7475,28 +7475,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1019.442935179253</v>
+        <v>1303.20856679287</v>
       </c>
       <c r="AB10" t="n">
-        <v>1394.846798560403</v>
+        <v>1783.107454590284</v>
       </c>
       <c r="AC10" t="n">
-        <v>1261.724577785575</v>
+        <v>1612.930181731217</v>
       </c>
       <c r="AD10" t="n">
-        <v>1019442.935179253</v>
+        <v>1303208.56679287</v>
       </c>
       <c r="AE10" t="n">
-        <v>1394846.798560403</v>
+        <v>1783107.454590284</v>
       </c>
       <c r="AF10" t="n">
         <v>2.752810676271636e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>58</v>
+        <v>57.00520833333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1261724.577785575</v>
+        <v>1612930.181731217</v>
       </c>
     </row>
     <row r="11">
@@ -7581,28 +7581,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1004.000876019422</v>
+        <v>1287.833827440743</v>
       </c>
       <c r="AB11" t="n">
-        <v>1373.718291962353</v>
+        <v>1762.071057923075</v>
       </c>
       <c r="AC11" t="n">
-        <v>1242.612546203198</v>
+        <v>1593.901469237159</v>
       </c>
       <c r="AD11" t="n">
-        <v>1004000.876019422</v>
+        <v>1287833.827440743</v>
       </c>
       <c r="AE11" t="n">
-        <v>1373718.291962353</v>
+        <v>1762071.057923075</v>
       </c>
       <c r="AF11" t="n">
         <v>2.768420483937851e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>57</v>
+        <v>56.69270833333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1242612.546203197</v>
+        <v>1593901.469237159</v>
       </c>
     </row>
     <row r="12">
@@ -7687,28 +7687,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>998.945027792105</v>
+        <v>1282.676493986941</v>
       </c>
       <c r="AB12" t="n">
-        <v>1366.800657369456</v>
+        <v>1755.014566766089</v>
       </c>
       <c r="AC12" t="n">
-        <v>1236.355120946885</v>
+        <v>1587.518439692347</v>
       </c>
       <c r="AD12" t="n">
-        <v>998945.027792105</v>
+        <v>1282676.493986941</v>
       </c>
       <c r="AE12" t="n">
-        <v>1366800.657369456</v>
+        <v>1755014.566766089</v>
       </c>
       <c r="AF12" t="n">
         <v>2.781920858135658e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>57</v>
+        <v>56.40625</v>
       </c>
       <c r="AH12" t="n">
-        <v>1236355.120946885</v>
+        <v>1587518.439692347</v>
       </c>
     </row>
     <row r="13">
@@ -7793,28 +7793,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>995.06441393261</v>
+        <v>1278.795880127446</v>
       </c>
       <c r="AB13" t="n">
-        <v>1361.491030286295</v>
+        <v>1749.704939682927</v>
       </c>
       <c r="AC13" t="n">
-        <v>1231.552237220432</v>
+        <v>1582.715555965894</v>
       </c>
       <c r="AD13" t="n">
-        <v>995064.4139326101</v>
+        <v>1278795.880127446</v>
       </c>
       <c r="AE13" t="n">
-        <v>1361491.030286294</v>
+        <v>1749704.939682927</v>
       </c>
       <c r="AF13" t="n">
         <v>2.788791584289899e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>57</v>
+        <v>56.27604166666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>1231552.237220432</v>
+        <v>1582715.555965894</v>
       </c>
     </row>
     <row r="14">
@@ -7899,28 +7899,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>978.7656658844519</v>
+        <v>1262.564451886992</v>
       </c>
       <c r="AB14" t="n">
-        <v>1339.190364156789</v>
+        <v>1727.496383484263</v>
       </c>
       <c r="AC14" t="n">
-        <v>1211.379915367145</v>
+        <v>1562.626553200926</v>
       </c>
       <c r="AD14" t="n">
-        <v>978765.6658844519</v>
+        <v>1262564.451886992</v>
       </c>
       <c r="AE14" t="n">
-        <v>1339190.364156788</v>
+        <v>1727496.383484263</v>
       </c>
       <c r="AF14" t="n">
         <v>2.806510825424521e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>56</v>
+        <v>55.91145833333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>1211379.915367145</v>
+        <v>1562626.553200926</v>
       </c>
     </row>
     <row r="15">
@@ -8005,28 +8005,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>975.4308690654719</v>
+        <v>1259.229655068013</v>
       </c>
       <c r="AB15" t="n">
-        <v>1334.627548028208</v>
+        <v>1722.933567355682</v>
       </c>
       <c r="AC15" t="n">
-        <v>1207.252568005923</v>
+        <v>1558.499205839704</v>
       </c>
       <c r="AD15" t="n">
-        <v>975430.8690654719</v>
+        <v>1259229.655068013</v>
       </c>
       <c r="AE15" t="n">
-        <v>1334627.548028208</v>
+        <v>1722933.567355682</v>
       </c>
       <c r="AF15" t="n">
         <v>2.813321282051094e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>56</v>
+        <v>55.78125</v>
       </c>
       <c r="AH15" t="n">
-        <v>1207252.568005923</v>
+        <v>1558499.205839704</v>
       </c>
     </row>
     <row r="16">
@@ -8111,28 +8111,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>970.7941006765437</v>
+        <v>1254.592886679085</v>
       </c>
       <c r="AB16" t="n">
-        <v>1328.283316958692</v>
+        <v>1716.589336286166</v>
       </c>
       <c r="AC16" t="n">
-        <v>1201.513821445498</v>
+        <v>1552.760459279279</v>
       </c>
       <c r="AD16" t="n">
-        <v>970794.1006765438</v>
+        <v>1254592.886679085</v>
       </c>
       <c r="AE16" t="n">
-        <v>1328283.316958692</v>
+        <v>1716589.336286166</v>
       </c>
       <c r="AF16" t="n">
         <v>2.821578207341717e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>56</v>
+        <v>55.625</v>
       </c>
       <c r="AH16" t="n">
-        <v>1201513.821445498</v>
+        <v>1552760.459279279</v>
       </c>
     </row>
     <row r="17">
@@ -8217,28 +8217,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>969.6854245584993</v>
+        <v>1253.48421056104</v>
       </c>
       <c r="AB17" t="n">
-        <v>1326.766377382645</v>
+        <v>1715.07239671012</v>
       </c>
       <c r="AC17" t="n">
-        <v>1200.141656453551</v>
+        <v>1551.388294287332</v>
       </c>
       <c r="AD17" t="n">
-        <v>969685.4245584994</v>
+        <v>1253484.21056104</v>
       </c>
       <c r="AE17" t="n">
-        <v>1326766.377382645</v>
+        <v>1715072.39671012</v>
       </c>
       <c r="AF17" t="n">
         <v>2.819709851983984e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>56</v>
+        <v>55.65104166666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>1200141.656453551</v>
+        <v>1551388.294287332</v>
       </c>
     </row>
     <row r="18">
@@ -8323,28 +8323,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>965.680583947866</v>
+        <v>1249.377884723921</v>
       </c>
       <c r="AB18" t="n">
-        <v>1321.286777778078</v>
+        <v>1709.453940541463</v>
       </c>
       <c r="AC18" t="n">
-        <v>1195.185022144577</v>
+        <v>1546.30605568986</v>
       </c>
       <c r="AD18" t="n">
-        <v>965680.583947866</v>
+        <v>1249377.884723921</v>
       </c>
       <c r="AE18" t="n">
-        <v>1321286.777778078</v>
+        <v>1709453.940541463</v>
       </c>
       <c r="AF18" t="n">
         <v>2.829473515466328e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>56</v>
+        <v>55.46875</v>
       </c>
       <c r="AH18" t="n">
-        <v>1195185.022144577</v>
+        <v>1546306.05568986</v>
       </c>
     </row>
     <row r="19">
@@ -8429,28 +8429,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>961.0631662620142</v>
+        <v>1235.040276605283</v>
       </c>
       <c r="AB19" t="n">
-        <v>1314.969023194205</v>
+        <v>1689.836592582914</v>
       </c>
       <c r="AC19" t="n">
-        <v>1189.470225191164</v>
+        <v>1528.560959887353</v>
       </c>
       <c r="AD19" t="n">
-        <v>961063.1662620142</v>
+        <v>1235040.276605283</v>
       </c>
       <c r="AE19" t="n">
-        <v>1314969.023194205</v>
+        <v>1689836.592582914</v>
       </c>
       <c r="AF19" t="n">
         <v>2.836525050203575e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>56</v>
+        <v>55.33854166666666</v>
       </c>
       <c r="AH19" t="n">
-        <v>1189470.225191164</v>
+        <v>1528560.959887353</v>
       </c>
     </row>
     <row r="20">
@@ -8535,28 +8535,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>958.6115682476188</v>
+        <v>1232.588678590887</v>
       </c>
       <c r="AB20" t="n">
-        <v>1311.614638634038</v>
+        <v>1686.482208022747</v>
       </c>
       <c r="AC20" t="n">
-        <v>1186.435978385512</v>
+        <v>1525.526713081701</v>
       </c>
       <c r="AD20" t="n">
-        <v>958611.5682476189</v>
+        <v>1232588.678590887</v>
       </c>
       <c r="AE20" t="n">
-        <v>1311614.638634038</v>
+        <v>1686482.208022747</v>
       </c>
       <c r="AF20" t="n">
         <v>2.838152327450632e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>56</v>
+        <v>55.3125</v>
       </c>
       <c r="AH20" t="n">
-        <v>1186435.978385512</v>
+        <v>1525526.713081701</v>
       </c>
     </row>
     <row r="21">
@@ -8641,28 +8641,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>954.3654425755724</v>
+        <v>1228.342552918841</v>
       </c>
       <c r="AB21" t="n">
-        <v>1305.8049021637</v>
+        <v>1680.672471552409</v>
       </c>
       <c r="AC21" t="n">
-        <v>1181.180715009886</v>
+        <v>1520.271449706075</v>
       </c>
       <c r="AD21" t="n">
-        <v>954365.4425755724</v>
+        <v>1228342.552918841</v>
       </c>
       <c r="AE21" t="n">
-        <v>1305804.9021637</v>
+        <v>1680672.471552409</v>
       </c>
       <c r="AF21" t="n">
         <v>2.84417928021751e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>56</v>
+        <v>55.18229166666666</v>
       </c>
       <c r="AH21" t="n">
-        <v>1181180.715009886</v>
+        <v>1520271.449706075</v>
       </c>
     </row>
     <row r="22">
@@ -8747,28 +8747,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>953.0172812140449</v>
+        <v>1226.994391557314</v>
       </c>
       <c r="AB22" t="n">
-        <v>1303.960288312177</v>
+        <v>1678.827857700886</v>
       </c>
       <c r="AC22" t="n">
-        <v>1179.51214851542</v>
+        <v>1518.602883211609</v>
       </c>
       <c r="AD22" t="n">
-        <v>953017.2812140449</v>
+        <v>1226994.391557314</v>
       </c>
       <c r="AE22" t="n">
-        <v>1303960.288312176</v>
+        <v>1678827.857700886</v>
       </c>
       <c r="AF22" t="n">
         <v>2.845324401243217e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>56</v>
+        <v>55.15625</v>
       </c>
       <c r="AH22" t="n">
-        <v>1179512.148515421</v>
+        <v>1518602.883211609</v>
       </c>
     </row>
     <row r="23">
@@ -8853,28 +8853,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>947.7922649668798</v>
+        <v>1221.769375310148</v>
       </c>
       <c r="AB23" t="n">
-        <v>1296.811190571357</v>
+        <v>1671.678759960066</v>
       </c>
       <c r="AC23" t="n">
-        <v>1173.045350629163</v>
+        <v>1512.136085325352</v>
       </c>
       <c r="AD23" t="n">
-        <v>947792.2649668797</v>
+        <v>1221769.375310148</v>
       </c>
       <c r="AE23" t="n">
-        <v>1296811.190571357</v>
+        <v>1671678.759960066</v>
       </c>
       <c r="AF23" t="n">
         <v>2.851773240703777e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>56</v>
+        <v>55.02604166666666</v>
       </c>
       <c r="AH23" t="n">
-        <v>1173045.350629163</v>
+        <v>1512136.085325352</v>
       </c>
     </row>
     <row r="24">
@@ -8959,19 +8959,19 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>935.676225176563</v>
+        <v>1219.440845760323</v>
       </c>
       <c r="AB24" t="n">
-        <v>1280.233490408295</v>
+        <v>1668.492763102521</v>
       </c>
       <c r="AC24" t="n">
-        <v>1158.049802902715</v>
+        <v>1509.254155536316</v>
       </c>
       <c r="AD24" t="n">
-        <v>935676.225176563</v>
+        <v>1219440.845760323</v>
       </c>
       <c r="AE24" t="n">
-        <v>1280233.490408295</v>
+        <v>1668492.763102521</v>
       </c>
       <c r="AF24" t="n">
         <v>2.853340248423165e-06</v>
@@ -8980,7 +8980,7 @@
         <v>55</v>
       </c>
       <c r="AH24" t="n">
-        <v>1158049.802902715</v>
+        <v>1509254.155536316</v>
       </c>
     </row>
     <row r="25">
@@ -9065,19 +9065,19 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>932.7632630838535</v>
+        <v>1216.527883667613</v>
       </c>
       <c r="AB25" t="n">
-        <v>1276.247847162232</v>
+        <v>1664.507119856459</v>
       </c>
       <c r="AC25" t="n">
-        <v>1154.444543854171</v>
+        <v>1505.648896487772</v>
       </c>
       <c r="AD25" t="n">
-        <v>932763.2630838535</v>
+        <v>1216527.883667613</v>
       </c>
       <c r="AE25" t="n">
-        <v>1276247.847162232</v>
+        <v>1664507.119856459</v>
       </c>
       <c r="AF25" t="n">
         <v>2.853882674172184e-06</v>
@@ -9086,7 +9086,7 @@
         <v>55</v>
       </c>
       <c r="AH25" t="n">
-        <v>1154444.543854171</v>
+        <v>1505648.896487772</v>
       </c>
     </row>
     <row r="26">
@@ -9171,28 +9171,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>940.7991178123698</v>
+        <v>1214.776228155638</v>
       </c>
       <c r="AB26" t="n">
-        <v>1287.242858118678</v>
+        <v>1662.110427507387</v>
       </c>
       <c r="AC26" t="n">
-        <v>1164.390206396529</v>
+        <v>1503.480941092718</v>
       </c>
       <c r="AD26" t="n">
-        <v>940799.1178123698</v>
+        <v>1214776.228155638</v>
       </c>
       <c r="AE26" t="n">
-        <v>1287242.858118678</v>
+        <v>1662110.427507387</v>
       </c>
       <c r="AF26" t="n">
         <v>2.852797822674146e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>56</v>
+        <v>55.02604166666666</v>
       </c>
       <c r="AH26" t="n">
-        <v>1164390.206396529</v>
+        <v>1503480.941092718</v>
       </c>
     </row>
     <row r="27">
@@ -9277,28 +9277,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>928.6753784845334</v>
+        <v>1212.439999068293</v>
       </c>
       <c r="AB27" t="n">
-        <v>1270.654623108702</v>
+        <v>1658.913895802928</v>
       </c>
       <c r="AC27" t="n">
-        <v>1149.385129254171</v>
+        <v>1500.589481887772</v>
       </c>
       <c r="AD27" t="n">
-        <v>928675.3784845334</v>
+        <v>1212439.999068293</v>
       </c>
       <c r="AE27" t="n">
-        <v>1270654.623108702</v>
+        <v>1658913.895802928</v>
       </c>
       <c r="AF27" t="n">
         <v>2.860693130798757e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>55</v>
+        <v>54.86979166666666</v>
       </c>
       <c r="AH27" t="n">
-        <v>1149385.129254171</v>
+        <v>1500589.481887772</v>
       </c>
     </row>
     <row r="28">
@@ -9383,28 +9383,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>930.5733827524828</v>
+        <v>1214.338003336243</v>
       </c>
       <c r="AB28" t="n">
-        <v>1273.251556282149</v>
+        <v>1661.510828976375</v>
       </c>
       <c r="AC28" t="n">
-        <v>1151.734214770362</v>
+        <v>1502.938567403964</v>
       </c>
       <c r="AD28" t="n">
-        <v>930573.3827524828</v>
+        <v>1214338.003336243</v>
       </c>
       <c r="AE28" t="n">
-        <v>1273251.556282149</v>
+        <v>1661510.828976375</v>
       </c>
       <c r="AF28" t="n">
         <v>2.860391783160413e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>55</v>
+        <v>54.86979166666666</v>
       </c>
       <c r="AH28" t="n">
-        <v>1151734.214770362</v>
+        <v>1502938.567403964</v>
       </c>
     </row>
   </sheetData>
@@ -9680,28 +9680,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1482.330707887804</v>
+        <v>1879.09757239697</v>
       </c>
       <c r="AB2" t="n">
-        <v>2028.19027034752</v>
+        <v>2571.064198487645</v>
       </c>
       <c r="AC2" t="n">
-        <v>1834.622637528475</v>
+        <v>2325.68543989525</v>
       </c>
       <c r="AD2" t="n">
-        <v>1482330.707887804</v>
+        <v>1879097.57239697</v>
       </c>
       <c r="AE2" t="n">
-        <v>2028190.27034752</v>
+        <v>2571064.198487645</v>
       </c>
       <c r="AF2" t="n">
         <v>2.144826364723085e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>81</v>
+        <v>80.078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1834622.637528475</v>
+        <v>2325685.43989525</v>
       </c>
     </row>
     <row r="3">
@@ -9786,28 +9786,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1148.973310831286</v>
+        <v>1468.329947558369</v>
       </c>
       <c r="AB3" t="n">
-        <v>1572.075973004381</v>
+        <v>2009.033812394834</v>
       </c>
       <c r="AC3" t="n">
-        <v>1422.039248563328</v>
+        <v>1817.294445036536</v>
       </c>
       <c r="AD3" t="n">
-        <v>1148973.310831286</v>
+        <v>1468329.947558369</v>
       </c>
       <c r="AE3" t="n">
-        <v>1572075.973004381</v>
+        <v>2009033.812394834</v>
       </c>
       <c r="AF3" t="n">
         <v>2.628539972681634e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>66</v>
+        <v>65.33854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1422039.248563328</v>
+        <v>1817294.445036536</v>
       </c>
     </row>
     <row r="4">
@@ -9892,28 +9892,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1047.102217546053</v>
+        <v>1356.777294093171</v>
       </c>
       <c r="AB4" t="n">
-        <v>1432.691448936077</v>
+        <v>1856.402550568012</v>
       </c>
       <c r="AC4" t="n">
-        <v>1295.957387844695</v>
+        <v>1679.230096619144</v>
       </c>
       <c r="AD4" t="n">
-        <v>1047102.217546053</v>
+        <v>1356777.294093171</v>
       </c>
       <c r="AE4" t="n">
-        <v>1432691.448936077</v>
+        <v>1856402.550568012</v>
       </c>
       <c r="AF4" t="n">
         <v>2.820112983059218e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>61</v>
+        <v>60.88541666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1295957.387844695</v>
+        <v>1679230.096619144</v>
       </c>
     </row>
     <row r="5">
@@ -9998,28 +9998,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1003.844354015006</v>
+        <v>1303.838881412015</v>
       </c>
       <c r="AB5" t="n">
-        <v>1373.504131650647</v>
+        <v>1783.969878859717</v>
       </c>
       <c r="AC5" t="n">
-        <v>1242.418825051065</v>
+        <v>1613.710297438795</v>
       </c>
       <c r="AD5" t="n">
-        <v>1003844.354015006</v>
+        <v>1303838.881412015</v>
       </c>
       <c r="AE5" t="n">
-        <v>1373504.131650647</v>
+        <v>1783969.878859716</v>
       </c>
       <c r="AF5" t="n">
         <v>2.911711919862821e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>59</v>
+        <v>58.984375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1242418.825051065</v>
+        <v>1613710.297438795</v>
       </c>
     </row>
     <row r="6">
@@ -10104,28 +10104,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>979.134902111246</v>
+        <v>1269.483045776928</v>
       </c>
       <c r="AB6" t="n">
-        <v>1339.695569451841</v>
+        <v>1736.962708871293</v>
       </c>
       <c r="AC6" t="n">
-        <v>1211.836904577897</v>
+        <v>1571.189425779089</v>
       </c>
       <c r="AD6" t="n">
-        <v>979134.902111246</v>
+        <v>1269483.045776928</v>
       </c>
       <c r="AE6" t="n">
-        <v>1339695.569451841</v>
+        <v>1736962.708871293</v>
       </c>
       <c r="AF6" t="n">
         <v>2.970667607049588e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>58</v>
+        <v>57.8125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1211836.904577897</v>
+        <v>1571189.425779089</v>
       </c>
     </row>
     <row r="7">
@@ -10210,28 +10210,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>957.5474259575487</v>
+        <v>1247.86140420445</v>
       </c>
       <c r="AB7" t="n">
-        <v>1310.158632206119</v>
+        <v>1707.379024992324</v>
       </c>
       <c r="AC7" t="n">
-        <v>1185.118931167556</v>
+        <v>1544.429167168568</v>
       </c>
       <c r="AD7" t="n">
-        <v>957547.4259575488</v>
+        <v>1247861.40420445</v>
       </c>
       <c r="AE7" t="n">
-        <v>1310158.632206119</v>
+        <v>1707379.024992323</v>
       </c>
       <c r="AF7" t="n">
         <v>3.014125993913213e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>57</v>
+        <v>56.97916666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1185118.931167556</v>
+        <v>1544429.167168568</v>
       </c>
     </row>
     <row r="8">
@@ -10316,28 +10316,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>948.7000583234346</v>
+        <v>1229.300333031304</v>
       </c>
       <c r="AB8" t="n">
-        <v>1298.053273490812</v>
+        <v>1681.982948556557</v>
       </c>
       <c r="AC8" t="n">
-        <v>1174.16889089806</v>
+        <v>1521.456856624214</v>
       </c>
       <c r="AD8" t="n">
-        <v>948700.0583234347</v>
+        <v>1229300.333031304</v>
       </c>
       <c r="AE8" t="n">
-        <v>1298053.273490812</v>
+        <v>1681982.948556557</v>
       </c>
       <c r="AF8" t="n">
         <v>3.043735729424241e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>57</v>
+        <v>56.43229166666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1174168.89089806</v>
+        <v>1521456.856624214</v>
       </c>
     </row>
     <row r="9">
@@ -10422,28 +10422,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>941.934659290495</v>
+        <v>1212.922715685818</v>
       </c>
       <c r="AB9" t="n">
-        <v>1288.796556065603</v>
+        <v>1659.57436997498</v>
       </c>
       <c r="AC9" t="n">
-        <v>1165.795621592029</v>
+        <v>1501.186921331824</v>
       </c>
       <c r="AD9" t="n">
-        <v>941934.659290495</v>
+        <v>1212922.715685818</v>
       </c>
       <c r="AE9" t="n">
-        <v>1288796.556065603</v>
+        <v>1659574.36997498</v>
       </c>
       <c r="AF9" t="n">
         <v>3.065959517547218e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>57</v>
+        <v>56.015625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1165795.621592029</v>
+        <v>1501186.921331824</v>
       </c>
     </row>
     <row r="10">
@@ -10528,28 +10528,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>925.2215929950171</v>
+        <v>1205.889187510591</v>
       </c>
       <c r="AB10" t="n">
-        <v>1265.929001431683</v>
+        <v>1649.950786428271</v>
       </c>
       <c r="AC10" t="n">
-        <v>1145.110514277555</v>
+        <v>1492.481799092029</v>
       </c>
       <c r="AD10" t="n">
-        <v>925221.5929950171</v>
+        <v>1205889.187510591</v>
       </c>
       <c r="AE10" t="n">
-        <v>1265929.001431684</v>
+        <v>1649950.786428271</v>
       </c>
       <c r="AF10" t="n">
         <v>3.082380061293867e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>56</v>
+        <v>55.703125</v>
       </c>
       <c r="AH10" t="n">
-        <v>1145110.514277556</v>
+        <v>1492481.799092029</v>
       </c>
     </row>
     <row r="11">
@@ -10634,28 +10634,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>920.118049567407</v>
+        <v>1200.684158856496</v>
       </c>
       <c r="AB11" t="n">
-        <v>1258.946108161582</v>
+        <v>1642.82903659408</v>
       </c>
       <c r="AC11" t="n">
-        <v>1138.7940585406</v>
+        <v>1486.039739066574</v>
       </c>
       <c r="AD11" t="n">
-        <v>920118.049567407</v>
+        <v>1200684.158856496</v>
       </c>
       <c r="AE11" t="n">
-        <v>1258946.108161582</v>
+        <v>1642829.03659408</v>
       </c>
       <c r="AF11" t="n">
         <v>3.096756280317039e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>56</v>
+        <v>55.46875</v>
       </c>
       <c r="AH11" t="n">
-        <v>1138794.0585406</v>
+        <v>1486039.739066574</v>
       </c>
     </row>
     <row r="12">
@@ -10740,28 +10740,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>913.8777718930601</v>
+        <v>1184.831662869602</v>
       </c>
       <c r="AB12" t="n">
-        <v>1250.407884945919</v>
+        <v>1621.138952222048</v>
       </c>
       <c r="AC12" t="n">
-        <v>1131.070711365168</v>
+        <v>1466.419725904784</v>
       </c>
       <c r="AD12" t="n">
-        <v>913877.7718930601</v>
+        <v>1184831.662869602</v>
       </c>
       <c r="AE12" t="n">
-        <v>1250407.884945919</v>
+        <v>1621138.952222048</v>
       </c>
       <c r="AF12" t="n">
         <v>3.111330337216676e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>56</v>
+        <v>55.20833333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1131070.711365168</v>
+        <v>1466419.725904784</v>
       </c>
     </row>
     <row r="13">
@@ -10846,28 +10846,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>910.211671846777</v>
+        <v>1181.165562823319</v>
       </c>
       <c r="AB13" t="n">
-        <v>1245.391765125675</v>
+        <v>1616.122832401804</v>
       </c>
       <c r="AC13" t="n">
-        <v>1126.5333229804</v>
+        <v>1461.882337520016</v>
       </c>
       <c r="AD13" t="n">
-        <v>910211.671846777</v>
+        <v>1181165.562823319</v>
       </c>
       <c r="AE13" t="n">
-        <v>1245391.765125675</v>
+        <v>1616122.832401804</v>
       </c>
       <c r="AF13" t="n">
         <v>3.118980068440015e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>56</v>
+        <v>55.05208333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>1126533.3229804</v>
+        <v>1461882.337520016</v>
       </c>
     </row>
     <row r="14">
@@ -10952,28 +10952,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>894.9535159197555</v>
+        <v>1175.586945016548</v>
       </c>
       <c r="AB14" t="n">
-        <v>1224.514883043993</v>
+        <v>1608.489921407333</v>
       </c>
       <c r="AC14" t="n">
-        <v>1107.648901223706</v>
+        <v>1454.977900837999</v>
       </c>
       <c r="AD14" t="n">
-        <v>894953.5159197556</v>
+        <v>1175586.945016549</v>
       </c>
       <c r="AE14" t="n">
-        <v>1224514.883043993</v>
+        <v>1608489.921407333</v>
       </c>
       <c r="AF14" t="n">
         <v>3.126563853704532e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>55</v>
+        <v>54.921875</v>
       </c>
       <c r="AH14" t="n">
-        <v>1107648.901223706</v>
+        <v>1454977.900837999</v>
       </c>
     </row>
     <row r="15">
@@ -11058,28 +11058,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>890.49449255386</v>
+        <v>1171.127921650653</v>
       </c>
       <c r="AB15" t="n">
-        <v>1218.413850556548</v>
+        <v>1602.388888919887</v>
       </c>
       <c r="AC15" t="n">
-        <v>1102.13014271401</v>
+        <v>1449.459142328303</v>
       </c>
       <c r="AD15" t="n">
-        <v>890494.4925538601</v>
+        <v>1171127.921650653</v>
       </c>
       <c r="AE15" t="n">
-        <v>1218413.850556548</v>
+        <v>1602388.888919887</v>
       </c>
       <c r="AF15" t="n">
         <v>3.135004936433734e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>55</v>
+        <v>54.79166666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>1102130.14271401</v>
+        <v>1449459.142328303</v>
       </c>
     </row>
     <row r="16">
@@ -11164,28 +11164,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>885.1938502354512</v>
+        <v>1156.215061019698</v>
       </c>
       <c r="AB16" t="n">
-        <v>1211.161277888666</v>
+        <v>1581.984455095636</v>
       </c>
       <c r="AC16" t="n">
-        <v>1095.569745402501</v>
+        <v>1431.002079030435</v>
       </c>
       <c r="AD16" t="n">
-        <v>885193.8502354512</v>
+        <v>1156215.061019698</v>
       </c>
       <c r="AE16" t="n">
-        <v>1211161.277888666</v>
+        <v>1581984.455095636</v>
       </c>
       <c r="AF16" t="n">
         <v>3.142390883821786e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>55</v>
+        <v>54.66145833333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>1095569.745402501</v>
+        <v>1431002.079030436</v>
       </c>
     </row>
     <row r="17">
@@ -11270,28 +11270,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>881.2575372479353</v>
+        <v>1152.278748032182</v>
       </c>
       <c r="AB17" t="n">
-        <v>1205.775440801274</v>
+        <v>1576.598618008244</v>
       </c>
       <c r="AC17" t="n">
-        <v>1090.697925047659</v>
+        <v>1426.130258675594</v>
       </c>
       <c r="AD17" t="n">
-        <v>881257.5372479353</v>
+        <v>1152278.748032182</v>
       </c>
       <c r="AE17" t="n">
-        <v>1205775.440801274</v>
+        <v>1576598.618008244</v>
       </c>
       <c r="AF17" t="n">
         <v>3.143050343410004e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>55</v>
+        <v>54.63541666666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>1090697.925047659</v>
+        <v>1426130.258675594</v>
       </c>
     </row>
     <row r="18">
@@ -11376,28 +11376,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>879.020887900406</v>
+        <v>1150.042098684653</v>
       </c>
       <c r="AB18" t="n">
-        <v>1202.715158489979</v>
+        <v>1573.538335696949</v>
       </c>
       <c r="AC18" t="n">
-        <v>1087.929711785021</v>
+        <v>1423.362045412956</v>
       </c>
       <c r="AD18" t="n">
-        <v>879020.887900406</v>
+        <v>1150042.098684652</v>
       </c>
       <c r="AE18" t="n">
-        <v>1202715.158489979</v>
+        <v>1573538.335696949</v>
       </c>
       <c r="AF18" t="n">
         <v>3.149051425662796e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>55</v>
+        <v>54.53125</v>
       </c>
       <c r="AH18" t="n">
-        <v>1087929.711785021</v>
+        <v>1423362.045412956</v>
       </c>
     </row>
     <row r="19">
@@ -11482,28 +11482,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>878.8997951213252</v>
+        <v>1149.921005905572</v>
       </c>
       <c r="AB19" t="n">
-        <v>1202.549474007404</v>
+        <v>1573.372651214374</v>
       </c>
       <c r="AC19" t="n">
-        <v>1087.779839996924</v>
+        <v>1423.212173624859</v>
       </c>
       <c r="AD19" t="n">
-        <v>878899.7951213252</v>
+        <v>1149921.005905572</v>
       </c>
       <c r="AE19" t="n">
-        <v>1202549.474007404</v>
+        <v>1573372.651214374</v>
       </c>
       <c r="AF19" t="n">
         <v>3.148589803951042e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>55</v>
+        <v>54.53125</v>
       </c>
       <c r="AH19" t="n">
-        <v>1087779.839996924</v>
+        <v>1423212.173624859</v>
       </c>
     </row>
   </sheetData>
@@ -11779,28 +11779,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>935.7219172179247</v>
+        <v>1234.995847662688</v>
       </c>
       <c r="AB2" t="n">
-        <v>1280.296008275076</v>
+        <v>1689.775802943589</v>
       </c>
       <c r="AC2" t="n">
-        <v>1158.106354152036</v>
+        <v>1528.505971925887</v>
       </c>
       <c r="AD2" t="n">
-        <v>935721.9172179247</v>
+        <v>1234995.847662688</v>
       </c>
       <c r="AE2" t="n">
-        <v>1280296.008275076</v>
+        <v>1689775.802943589</v>
       </c>
       <c r="AF2" t="n">
         <v>3.793594618516669e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>64</v>
+        <v>63.17708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1158106.354152036</v>
+        <v>1528505.971925887</v>
       </c>
     </row>
     <row r="3">
@@ -11885,28 +11885,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>822.7386546679833</v>
+        <v>1093.946139893567</v>
       </c>
       <c r="AB3" t="n">
-        <v>1125.707323984489</v>
+        <v>1496.785370099946</v>
       </c>
       <c r="AC3" t="n">
-        <v>1018.271396923561</v>
+        <v>1353.934275129067</v>
       </c>
       <c r="AD3" t="n">
-        <v>822738.6546679833</v>
+        <v>1093946.139893567</v>
       </c>
       <c r="AE3" t="n">
-        <v>1125707.323984489</v>
+        <v>1496785.370099946</v>
       </c>
       <c r="AF3" t="n">
         <v>4.189761727705191e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>58</v>
+        <v>57.21354166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1018271.396923561</v>
+        <v>1353934.275129067</v>
       </c>
     </row>
     <row r="4">
@@ -11991,28 +11991,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>782.8214316635707</v>
+        <v>1044.673435149428</v>
       </c>
       <c r="AB4" t="n">
-        <v>1071.09081844626</v>
+        <v>1429.368281710698</v>
       </c>
       <c r="AC4" t="n">
-        <v>968.8674140191532</v>
+        <v>1292.951379035211</v>
       </c>
       <c r="AD4" t="n">
-        <v>782821.4316635707</v>
+        <v>1044673.435149428</v>
       </c>
       <c r="AE4" t="n">
-        <v>1071090.81844626</v>
+        <v>1429368.281710698</v>
       </c>
       <c r="AF4" t="n">
         <v>4.32911976750803e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>56</v>
+        <v>55.36458333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>968867.4140191532</v>
+        <v>1292951.379035211</v>
       </c>
     </row>
     <row r="5">
@@ -12097,28 +12097,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>759.0064785239277</v>
+        <v>1020.92580181749</v>
       </c>
       <c r="AB5" t="n">
-        <v>1038.506148919018</v>
+        <v>1396.875722114298</v>
       </c>
       <c r="AC5" t="n">
-        <v>939.3925796187209</v>
+        <v>1263.559863723098</v>
       </c>
       <c r="AD5" t="n">
-        <v>759006.4785239277</v>
+        <v>1020925.80181749</v>
       </c>
       <c r="AE5" t="n">
-        <v>1038506.148919018</v>
+        <v>1396875.722114298</v>
       </c>
       <c r="AF5" t="n">
         <v>4.395577168259451e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>55</v>
+        <v>54.53125</v>
       </c>
       <c r="AH5" t="n">
-        <v>939392.5796187209</v>
+        <v>1263559.863723098</v>
       </c>
     </row>
     <row r="6">
@@ -12203,28 +12203,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>749.7339199915367</v>
+        <v>1002.264607156448</v>
       </c>
       <c r="AB6" t="n">
-        <v>1025.81902525859</v>
+        <v>1371.342652305256</v>
       </c>
       <c r="AC6" t="n">
-        <v>927.9162972339535</v>
+        <v>1240.463634260743</v>
       </c>
       <c r="AD6" t="n">
-        <v>749733.9199915368</v>
+        <v>1002264.607156448</v>
       </c>
       <c r="AE6" t="n">
-        <v>1025819.02525859</v>
+        <v>1371342.652305256</v>
       </c>
       <c r="AF6" t="n">
         <v>4.436169569549446e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>55</v>
+        <v>54.03645833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>927916.2972339535</v>
+        <v>1240463.634260742</v>
       </c>
     </row>
     <row r="7">
@@ -12309,28 +12309,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>740.2322164334636</v>
+        <v>1002.117374308245</v>
       </c>
       <c r="AB7" t="n">
-        <v>1012.818375264858</v>
+        <v>1371.141201826889</v>
       </c>
       <c r="AC7" t="n">
-        <v>916.1564110290966</v>
+        <v>1240.281409933293</v>
       </c>
       <c r="AD7" t="n">
-        <v>740232.2164334636</v>
+        <v>1002117.374308245</v>
       </c>
       <c r="AE7" t="n">
-        <v>1012818.375264858</v>
+        <v>1371141.201826889</v>
       </c>
       <c r="AF7" t="n">
         <v>4.441968484019445e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>54</v>
+        <v>53.95833333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>916156.4110290966</v>
+        <v>1240281.409933293</v>
       </c>
     </row>
   </sheetData>
@@ -12606,28 +12606,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1103.401064576236</v>
+        <v>1435.155368427731</v>
       </c>
       <c r="AB2" t="n">
-        <v>1509.722015172611</v>
+        <v>1963.642889669157</v>
       </c>
       <c r="AC2" t="n">
-        <v>1365.636264952693</v>
+        <v>1776.235568269237</v>
       </c>
       <c r="AD2" t="n">
-        <v>1103401.064576236</v>
+        <v>1435155.368427731</v>
       </c>
       <c r="AE2" t="n">
-        <v>1509722.015172611</v>
+        <v>1963642.889669157</v>
       </c>
       <c r="AF2" t="n">
         <v>3.033439828353421e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>69</v>
+        <v>68.4375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1365636.264952693</v>
+        <v>1776235.568269237</v>
       </c>
     </row>
     <row r="3">
@@ -12712,28 +12712,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>926.8205530662499</v>
+        <v>1220.711896211534</v>
       </c>
       <c r="AB3" t="n">
-        <v>1268.116769142284</v>
+        <v>1670.231870404657</v>
       </c>
       <c r="AC3" t="n">
-        <v>1147.089484508408</v>
+        <v>1510.827284878389</v>
       </c>
       <c r="AD3" t="n">
-        <v>926820.5530662499</v>
+        <v>1220711.896211534</v>
       </c>
       <c r="AE3" t="n">
-        <v>1268116.769142284</v>
+        <v>1670231.870404657</v>
       </c>
       <c r="AF3" t="n">
         <v>3.474486276133725e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>60</v>
+        <v>59.73958333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1147089.484508408</v>
+        <v>1510827.284878389</v>
       </c>
     </row>
     <row r="4">
@@ -12818,28 +12818,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>879.4006406471872</v>
+        <v>1154.29368914659</v>
       </c>
       <c r="AB4" t="n">
-        <v>1203.234752951634</v>
+        <v>1579.355549333905</v>
       </c>
       <c r="AC4" t="n">
-        <v>1088.399716880512</v>
+        <v>1428.624072344912</v>
       </c>
       <c r="AD4" t="n">
-        <v>879400.6406471871</v>
+        <v>1154293.68914659</v>
       </c>
       <c r="AE4" t="n">
-        <v>1203234.752951634</v>
+        <v>1579355.549333905</v>
       </c>
       <c r="AF4" t="n">
         <v>3.631040627017607e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>58</v>
+        <v>57.16145833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1088399.716880511</v>
+        <v>1428624.072344912</v>
       </c>
     </row>
     <row r="5">
@@ -12924,28 +12924,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>843.9566941899997</v>
+        <v>1118.882897078326</v>
       </c>
       <c r="AB5" t="n">
-        <v>1154.738781732351</v>
+        <v>1530.904941412216</v>
       </c>
       <c r="AC5" t="n">
-        <v>1044.532133089874</v>
+        <v>1384.797522442414</v>
       </c>
       <c r="AD5" t="n">
-        <v>843956.6941899997</v>
+        <v>1118882.897078326</v>
       </c>
       <c r="AE5" t="n">
-        <v>1154738.781732351</v>
+        <v>1530904.941412216</v>
       </c>
       <c r="AF5" t="n">
         <v>3.712984554058661e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>56</v>
+        <v>55.91145833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1044532.133089874</v>
+        <v>1384797.522442413</v>
       </c>
     </row>
     <row r="6">
@@ -13030,28 +13030,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>833.014795624135</v>
+        <v>1098.425273995059</v>
       </c>
       <c r="AB6" t="n">
-        <v>1139.767593392039</v>
+        <v>1502.913918983056</v>
       </c>
       <c r="AC6" t="n">
-        <v>1030.989773952566</v>
+        <v>1359.477923908246</v>
       </c>
       <c r="AD6" t="n">
-        <v>833014.7956241349</v>
+        <v>1098425.273995059</v>
       </c>
       <c r="AE6" t="n">
-        <v>1139767.593392039</v>
+        <v>1502913.918983056</v>
       </c>
       <c r="AF6" t="n">
         <v>3.761608868742555e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>56</v>
+        <v>55.18229166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1030989.773952566</v>
+        <v>1359477.923908246</v>
       </c>
     </row>
     <row r="7">
@@ -13136,28 +13136,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>813.728517405513</v>
+        <v>1079.206315584141</v>
       </c>
       <c r="AB7" t="n">
-        <v>1113.379256682775</v>
+        <v>1476.617692204635</v>
       </c>
       <c r="AC7" t="n">
-        <v>1007.119903062572</v>
+        <v>1335.691372106571</v>
       </c>
       <c r="AD7" t="n">
-        <v>813728.517405513</v>
+        <v>1079206.315584141</v>
       </c>
       <c r="AE7" t="n">
-        <v>1113379.256682775</v>
+        <v>1476617.692204634</v>
       </c>
       <c r="AF7" t="n">
         <v>3.793015393308873e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>55</v>
+        <v>54.73958333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1007119.903062572</v>
+        <v>1335691.372106571</v>
       </c>
     </row>
     <row r="8">
@@ -13242,28 +13242,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>804.1307512346597</v>
+        <v>1069.507064186802</v>
       </c>
       <c r="AB8" t="n">
-        <v>1100.247169584254</v>
+        <v>1463.346748542024</v>
       </c>
       <c r="AC8" t="n">
-        <v>995.2411239257334</v>
+        <v>1323.686988681233</v>
       </c>
       <c r="AD8" t="n">
-        <v>804130.7512346597</v>
+        <v>1069507.064186802</v>
       </c>
       <c r="AE8" t="n">
-        <v>1100247.169584254</v>
+        <v>1463346.748542024</v>
       </c>
       <c r="AF8" t="n">
         <v>3.824740765840332e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>55</v>
+        <v>54.27083333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>995241.1239257334</v>
+        <v>1323686.988681233</v>
       </c>
     </row>
     <row r="9">
@@ -13348,28 +13348,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>797.7245763480531</v>
+        <v>1053.686650009279</v>
       </c>
       <c r="AB9" t="n">
-        <v>1091.481958483909</v>
+        <v>1441.700559916921</v>
       </c>
       <c r="AC9" t="n">
-        <v>987.3124522707546</v>
+        <v>1304.106681917893</v>
       </c>
       <c r="AD9" t="n">
-        <v>797724.5763480532</v>
+        <v>1053686.650009279</v>
       </c>
       <c r="AE9" t="n">
-        <v>1091481.958483909</v>
+        <v>1441700.559916921</v>
       </c>
       <c r="AF9" t="n">
         <v>3.8393280602455e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>55</v>
+        <v>54.0625</v>
       </c>
       <c r="AH9" t="n">
-        <v>987312.4522707546</v>
+        <v>1304106.681917893</v>
       </c>
     </row>
     <row r="10">
@@ -13454,28 +13454,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>785.3524405362786</v>
+        <v>1050.796073296126</v>
       </c>
       <c r="AB10" t="n">
-        <v>1074.553856446129</v>
+        <v>1437.745545334741</v>
       </c>
       <c r="AC10" t="n">
-        <v>971.9999445327197</v>
+        <v>1300.529128376539</v>
       </c>
       <c r="AD10" t="n">
-        <v>785352.4405362785</v>
+        <v>1050796.073296126</v>
       </c>
       <c r="AE10" t="n">
-        <v>1074553.856446129</v>
+        <v>1437745.545334741</v>
       </c>
       <c r="AF10" t="n">
         <v>3.844828187644171e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>54</v>
+        <v>53.984375</v>
       </c>
       <c r="AH10" t="n">
-        <v>971999.9445327197</v>
+        <v>1300529.128376539</v>
       </c>
     </row>
     <row r="11">
@@ -13560,28 +13560,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>796.4807331370532</v>
+        <v>1052.442806798279</v>
       </c>
       <c r="AB11" t="n">
-        <v>1089.78007732813</v>
+        <v>1439.998678761141</v>
       </c>
       <c r="AC11" t="n">
-        <v>985.7729962638773</v>
+        <v>1302.567225911016</v>
       </c>
       <c r="AD11" t="n">
-        <v>796480.7331370532</v>
+        <v>1052442.806798279</v>
       </c>
       <c r="AE11" t="n">
-        <v>1089780.07732813</v>
+        <v>1439998.678761141</v>
       </c>
       <c r="AF11" t="n">
         <v>3.84434991569646e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>55</v>
+        <v>54.01041666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>985772.9962638773</v>
+        <v>1302567.225911016</v>
       </c>
     </row>
   </sheetData>
@@ -13857,28 +13857,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>817.2754792524058</v>
+        <v>1103.995687341337</v>
       </c>
       <c r="AB2" t="n">
-        <v>1118.232366362607</v>
+        <v>1510.535604272727</v>
       </c>
       <c r="AC2" t="n">
-        <v>1011.509838765943</v>
+        <v>1366.372206250973</v>
       </c>
       <c r="AD2" t="n">
-        <v>817275.4792524058</v>
+        <v>1103995.687341337</v>
       </c>
       <c r="AE2" t="n">
-        <v>1118232.366362607</v>
+        <v>1510535.604272727</v>
       </c>
       <c r="AF2" t="n">
         <v>4.580884108924151e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>59.921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1011509.838765942</v>
+        <v>1366372.206250973</v>
       </c>
     </row>
     <row r="3">
@@ -13963,28 +13963,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>739.9958494835239</v>
+        <v>1008.213571190101</v>
       </c>
       <c r="AB3" t="n">
-        <v>1012.494967576176</v>
+        <v>1379.482287345869</v>
       </c>
       <c r="AC3" t="n">
-        <v>915.8638689163173</v>
+        <v>1247.826433957129</v>
       </c>
       <c r="AD3" t="n">
-        <v>739995.8494835239</v>
+        <v>1008213.571190101</v>
       </c>
       <c r="AE3" t="n">
-        <v>1012494.967576176</v>
+        <v>1379482.287345869</v>
       </c>
       <c r="AF3" t="n">
         <v>4.939755700067687e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.57291666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>915863.8689163174</v>
+        <v>1247826.433957129</v>
       </c>
     </row>
     <row r="4">
@@ -14069,28 +14069,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>712.9948241140238</v>
+        <v>971.8939828217187</v>
       </c>
       <c r="AB4" t="n">
-        <v>975.5509734644579</v>
+        <v>1329.788224233096</v>
       </c>
       <c r="AC4" t="n">
-        <v>882.4457577513999</v>
+        <v>1202.875102481783</v>
       </c>
       <c r="AD4" t="n">
-        <v>712994.8241140238</v>
+        <v>971893.9828217188</v>
       </c>
       <c r="AE4" t="n">
-        <v>975550.9734644579</v>
+        <v>1329788.224233096</v>
       </c>
       <c r="AF4" t="n">
         <v>5.058360441559014e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>55</v>
+        <v>54.27083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>882445.7577513999</v>
+        <v>1202875.102481783</v>
       </c>
     </row>
     <row r="5">
@@ -14175,28 +14175,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>713.781765984539</v>
+        <v>972.6809246922339</v>
       </c>
       <c r="AB5" t="n">
-        <v>976.6277020491217</v>
+        <v>1330.86495281776</v>
       </c>
       <c r="AC5" t="n">
-        <v>883.4197248711416</v>
+        <v>1203.849069601525</v>
       </c>
       <c r="AD5" t="n">
-        <v>713781.7659845389</v>
+        <v>972680.9246922339</v>
       </c>
       <c r="AE5" t="n">
-        <v>976627.7020491217</v>
+        <v>1330864.95281776</v>
       </c>
       <c r="AF5" t="n">
         <v>5.06605657145134e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>55</v>
+        <v>54.19270833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>883419.7248711416</v>
+        <v>1203849.069601525</v>
       </c>
     </row>
   </sheetData>
@@ -14472,28 +14472,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1553.112877916381</v>
+        <v>1960.752232621839</v>
       </c>
       <c r="AB2" t="n">
-        <v>2125.037558069572</v>
+        <v>2682.787706956678</v>
       </c>
       <c r="AC2" t="n">
-        <v>1922.226956036357</v>
+        <v>2426.746213520928</v>
       </c>
       <c r="AD2" t="n">
-        <v>1553112.877916381</v>
+        <v>1960752.232621839</v>
       </c>
       <c r="AE2" t="n">
-        <v>2125037.558069572</v>
+        <v>2682787.706956678</v>
       </c>
       <c r="AF2" t="n">
         <v>2.035030879055659e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>83</v>
+        <v>82.34375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1922226.956036357</v>
+        <v>2426746.213520927</v>
       </c>
     </row>
     <row r="3">
@@ -14578,28 +14578,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1185.357752530077</v>
+        <v>1515.325677644921</v>
       </c>
       <c r="AB3" t="n">
-        <v>1621.858771304947</v>
+        <v>2073.33544360454</v>
       </c>
       <c r="AC3" t="n">
-        <v>1467.070846464685</v>
+        <v>1875.459218811493</v>
       </c>
       <c r="AD3" t="n">
-        <v>1185357.752530077</v>
+        <v>1515325.677644921</v>
       </c>
       <c r="AE3" t="n">
-        <v>1621858.771304947</v>
+        <v>2073335.44360454</v>
       </c>
       <c r="AF3" t="n">
         <v>2.530612348227074e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>67</v>
+        <v>66.22395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1467070.846464684</v>
+        <v>1875459.218811493</v>
       </c>
     </row>
     <row r="4">
@@ -14684,28 +14684,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1081.728475453244</v>
+        <v>1392.345862978138</v>
       </c>
       <c r="AB4" t="n">
-        <v>1480.068622607381</v>
+        <v>1905.069035690937</v>
       </c>
       <c r="AC4" t="n">
-        <v>1338.81295055509</v>
+        <v>1723.251920705778</v>
       </c>
       <c r="AD4" t="n">
-        <v>1081728.475453244</v>
+        <v>1392345.862978138</v>
       </c>
       <c r="AE4" t="n">
-        <v>1480068.622607381</v>
+        <v>1905069.035690937</v>
       </c>
       <c r="AF4" t="n">
         <v>2.714854621469219e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>62</v>
+        <v>61.71875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1338812.95055509</v>
+        <v>1723251.920705778</v>
       </c>
     </row>
     <row r="5">
@@ -14790,28 +14790,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1033.972039648879</v>
+        <v>1334.779013248462</v>
       </c>
       <c r="AB5" t="n">
-        <v>1414.726160274596</v>
+        <v>1826.303532220624</v>
       </c>
       <c r="AC5" t="n">
-        <v>1279.706681118625</v>
+        <v>1652.003686338593</v>
       </c>
       <c r="AD5" t="n">
-        <v>1033972.039648879</v>
+        <v>1334779.013248462</v>
       </c>
       <c r="AE5" t="n">
-        <v>1414726.160274596</v>
+        <v>1826303.532220624</v>
       </c>
       <c r="AF5" t="n">
         <v>2.818334040041824e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>60</v>
+        <v>59.453125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1279706.681118625</v>
+        <v>1652003.686338593</v>
       </c>
     </row>
     <row r="6">
@@ -14896,28 +14896,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1007.400060584913</v>
+        <v>1298.53227090445</v>
       </c>
       <c r="AB6" t="n">
-        <v>1378.369206246297</v>
+        <v>1776.709140252133</v>
       </c>
       <c r="AC6" t="n">
-        <v>1246.819583755481</v>
+        <v>1607.142513533409</v>
       </c>
       <c r="AD6" t="n">
-        <v>1007400.060584913</v>
+        <v>1298532.27090445</v>
       </c>
       <c r="AE6" t="n">
-        <v>1378369.206246297</v>
+        <v>1776709.140252133</v>
       </c>
       <c r="AF6" t="n">
         <v>2.881271149099043e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>59</v>
+        <v>58.15104166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1246819.583755481</v>
+        <v>1607142.513533409</v>
       </c>
     </row>
     <row r="7">
@@ -15002,28 +15002,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>986.8512462918435</v>
+        <v>1268.308693331335</v>
       </c>
       <c r="AB7" t="n">
-        <v>1350.253411980814</v>
+        <v>1735.355908046459</v>
       </c>
       <c r="AC7" t="n">
-        <v>1221.38712143393</v>
+        <v>1569.735975769818</v>
       </c>
       <c r="AD7" t="n">
-        <v>986851.2462918435</v>
+        <v>1268308.693331335</v>
       </c>
       <c r="AE7" t="n">
-        <v>1350253.411980814</v>
+        <v>1735355.908046459</v>
       </c>
       <c r="AF7" t="n">
         <v>2.92142734138095e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>58</v>
+        <v>57.36979166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1221387.12143393</v>
+        <v>1569735.975769818</v>
       </c>
     </row>
     <row r="8">
@@ -15108,28 +15108,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>967.9439791300732</v>
+        <v>1259.109343838534</v>
       </c>
       <c r="AB8" t="n">
-        <v>1324.383654920322</v>
+        <v>1722.768952223752</v>
       </c>
       <c r="AC8" t="n">
-        <v>1197.98633767886</v>
+        <v>1558.350301344927</v>
       </c>
       <c r="AD8" t="n">
-        <v>967943.9791300732</v>
+        <v>1259109.343838534</v>
       </c>
       <c r="AE8" t="n">
-        <v>1324383.654920322</v>
+        <v>1722768.952223752</v>
       </c>
       <c r="AF8" t="n">
         <v>2.951866249953613e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>57</v>
+        <v>56.77083333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1197986.33767886</v>
+        <v>1558350.301344927</v>
       </c>
     </row>
     <row r="9">
@@ -15214,28 +15214,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>960.3278614642111</v>
+        <v>1241.751143084921</v>
       </c>
       <c r="AB9" t="n">
-        <v>1313.962946730492</v>
+        <v>1699.018696162889</v>
       </c>
       <c r="AC9" t="n">
-        <v>1188.560167253112</v>
+        <v>1536.866736388819</v>
       </c>
       <c r="AD9" t="n">
-        <v>960327.8614642111</v>
+        <v>1241751.143084921</v>
       </c>
       <c r="AE9" t="n">
-        <v>1313962.946730492</v>
+        <v>1699018.696162889</v>
       </c>
       <c r="AF9" t="n">
         <v>2.974325402367692e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>57</v>
+        <v>56.35416666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1188560.167253111</v>
+        <v>1536866.736388819</v>
       </c>
     </row>
     <row r="10">
@@ -15320,28 +15320,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>955.4889342912405</v>
+        <v>1236.912215911951</v>
       </c>
       <c r="AB10" t="n">
-        <v>1307.342113094033</v>
+        <v>1692.397862526431</v>
       </c>
       <c r="AC10" t="n">
-        <v>1182.571216686518</v>
+        <v>1530.877785822226</v>
       </c>
       <c r="AD10" t="n">
-        <v>955488.9342912405</v>
+        <v>1236912.215911951</v>
       </c>
       <c r="AE10" t="n">
-        <v>1307342.113094033</v>
+        <v>1692397.862526431</v>
       </c>
       <c r="AF10" t="n">
         <v>2.986359389477815e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>57</v>
+        <v>56.11979166666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1182571.216686518</v>
+        <v>1530877.785822226</v>
       </c>
     </row>
     <row r="11">
@@ -15426,28 +15426,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>940.0432202912848</v>
+        <v>1221.5338217197</v>
       </c>
       <c r="AB11" t="n">
-        <v>1286.208605782484</v>
+        <v>1671.356465145723</v>
       </c>
       <c r="AC11" t="n">
-        <v>1163.454661651719</v>
+        <v>1511.844549875746</v>
       </c>
       <c r="AD11" t="n">
-        <v>940043.2202912848</v>
+        <v>1221533.8217197</v>
       </c>
       <c r="AE11" t="n">
-        <v>1286208.605782484</v>
+        <v>1671356.465145723</v>
       </c>
       <c r="AF11" t="n">
         <v>3.00122490296679e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>56</v>
+        <v>55.83333333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1163454.661651719</v>
+        <v>1511844.549875746</v>
       </c>
     </row>
     <row r="12">
@@ -15532,28 +15532,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>933.9653999158612</v>
+        <v>1215.456001344276</v>
       </c>
       <c r="AB12" t="n">
-        <v>1277.892663810318</v>
+        <v>1663.040523173558</v>
       </c>
       <c r="AC12" t="n">
-        <v>1155.932381509879</v>
+        <v>1504.322269733906</v>
       </c>
       <c r="AD12" t="n">
-        <v>933965.3999158612</v>
+        <v>1215456.001344276</v>
       </c>
       <c r="AE12" t="n">
-        <v>1277892.663810319</v>
+        <v>1663040.523173558</v>
       </c>
       <c r="AF12" t="n">
         <v>3.017441826772945e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>56</v>
+        <v>55.546875</v>
       </c>
       <c r="AH12" t="n">
-        <v>1155932.381509879</v>
+        <v>1504322.269733906</v>
       </c>
     </row>
     <row r="13">
@@ -15638,28 +15638,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>928.1641739336745</v>
+        <v>1199.912692274339</v>
       </c>
       <c r="AB13" t="n">
-        <v>1269.955170489463</v>
+        <v>1641.77348198167</v>
       </c>
       <c r="AC13" t="n">
-        <v>1148.752431411225</v>
+        <v>1485.084925104892</v>
       </c>
       <c r="AD13" t="n">
-        <v>928164.1739336746</v>
+        <v>1199912.692274339</v>
       </c>
       <c r="AE13" t="n">
-        <v>1269955.170489463</v>
+        <v>1641773.48198167</v>
       </c>
       <c r="AF13" t="n">
         <v>3.028574873671614e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>56</v>
+        <v>55.33854166666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>1148752.431411225</v>
+        <v>1485084.925104892</v>
       </c>
     </row>
     <row r="14">
@@ -15744,28 +15744,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>925.2697045108741</v>
+        <v>1197.018222851538</v>
       </c>
       <c r="AB14" t="n">
-        <v>1265.994829730209</v>
+        <v>1637.813141222415</v>
       </c>
       <c r="AC14" t="n">
-        <v>1145.17006001566</v>
+        <v>1481.502553709328</v>
       </c>
       <c r="AD14" t="n">
-        <v>925269.7045108741</v>
+        <v>1197018.222851538</v>
       </c>
       <c r="AE14" t="n">
-        <v>1265994.829730209</v>
+        <v>1637813.141222415</v>
       </c>
       <c r="AF14" t="n">
         <v>3.033272633345619e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>56</v>
+        <v>55.26041666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>1145170.06001566</v>
+        <v>1481502.553709328</v>
       </c>
     </row>
     <row r="15">
@@ -15850,28 +15850,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>921.1656441145618</v>
+        <v>1192.914162455226</v>
       </c>
       <c r="AB15" t="n">
-        <v>1260.379473237609</v>
+        <v>1632.197784729814</v>
       </c>
       <c r="AC15" t="n">
-        <v>1140.090625265511</v>
+        <v>1476.423118959179</v>
       </c>
       <c r="AD15" t="n">
-        <v>921165.6441145618</v>
+        <v>1192914.162455226</v>
       </c>
       <c r="AE15" t="n">
-        <v>1260379.473237609</v>
+        <v>1632197.784729814</v>
       </c>
       <c r="AF15" t="n">
         <v>3.040673213653983e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>56</v>
+        <v>55.10416666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>1140090.625265511</v>
+        <v>1476423.118959179</v>
       </c>
     </row>
     <row r="16">
@@ -15956,28 +15956,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>906.9909267656761</v>
+        <v>1188.44736277531</v>
       </c>
       <c r="AB16" t="n">
-        <v>1240.984999616468</v>
+        <v>1626.086112346459</v>
       </c>
       <c r="AC16" t="n">
-        <v>1122.547132986458</v>
+        <v>1470.894736010305</v>
       </c>
       <c r="AD16" t="n">
-        <v>906990.9267656761</v>
+        <v>1188447.36277531</v>
       </c>
       <c r="AE16" t="n">
-        <v>1240984.999616468</v>
+        <v>1626086.112346459</v>
       </c>
       <c r="AF16" t="n">
         <v>3.04936085140728e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>55</v>
+        <v>54.94791666666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>1122547.132986458</v>
+        <v>1470894.736010305</v>
       </c>
     </row>
     <row r="17">
@@ -16062,28 +16062,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>901.0583281196509</v>
+        <v>1182.514764129285</v>
       </c>
       <c r="AB17" t="n">
-        <v>1232.867756421196</v>
+        <v>1617.968869151187</v>
       </c>
       <c r="AC17" t="n">
-        <v>1115.20458808912</v>
+        <v>1463.552191112967</v>
       </c>
       <c r="AD17" t="n">
-        <v>901058.3281196509</v>
+        <v>1182514.764129285</v>
       </c>
       <c r="AE17" t="n">
-        <v>1232867.756421196</v>
+        <v>1617968.869151187</v>
       </c>
       <c r="AF17" t="n">
         <v>3.057662371927098e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>55</v>
+        <v>54.81770833333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>1115204.58808912</v>
+        <v>1463552.191112967</v>
       </c>
     </row>
     <row r="18">
@@ -16168,28 +16168,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>896.3519311573181</v>
+        <v>1177.808367166952</v>
       </c>
       <c r="AB18" t="n">
-        <v>1226.428256465752</v>
+        <v>1611.529369195743</v>
       </c>
       <c r="AC18" t="n">
-        <v>1109.379664971529</v>
+        <v>1457.727267995376</v>
       </c>
       <c r="AD18" t="n">
-        <v>896351.9311573181</v>
+        <v>1177808.367166952</v>
       </c>
       <c r="AE18" t="n">
-        <v>1226428.256465752</v>
+        <v>1611529.369195743</v>
       </c>
       <c r="AF18" t="n">
         <v>3.056375314482164e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>55</v>
+        <v>54.84375</v>
       </c>
       <c r="AH18" t="n">
-        <v>1109379.664971529</v>
+        <v>1457727.267995376</v>
       </c>
     </row>
     <row r="19">
@@ -16274,28 +16274,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>894.9641254977241</v>
+        <v>1166.779963646093</v>
       </c>
       <c r="AB19" t="n">
-        <v>1224.529399536631</v>
+        <v>1596.439820959679</v>
       </c>
       <c r="AC19" t="n">
-        <v>1107.662032282661</v>
+        <v>1444.077845064648</v>
       </c>
       <c r="AD19" t="n">
-        <v>894964.1254977242</v>
+        <v>1166779.963646093</v>
       </c>
       <c r="AE19" t="n">
-        <v>1224529.399536631</v>
+        <v>1596439.820959679</v>
       </c>
       <c r="AF19" t="n">
         <v>3.063840247662776e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>55</v>
+        <v>54.6875</v>
       </c>
       <c r="AH19" t="n">
-        <v>1107662.032282661</v>
+        <v>1444077.845064647</v>
       </c>
     </row>
     <row r="20">
@@ -16380,28 +16380,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>890.5202248494647</v>
+        <v>1162.336062997833</v>
       </c>
       <c r="AB20" t="n">
-        <v>1218.449058618623</v>
+        <v>1590.35948004167</v>
       </c>
       <c r="AC20" t="n">
-        <v>1102.161990568055</v>
+        <v>1438.577803350042</v>
       </c>
       <c r="AD20" t="n">
-        <v>890520.2248494647</v>
+        <v>1162336.062997833</v>
       </c>
       <c r="AE20" t="n">
-        <v>1218449.058618623</v>
+        <v>1590359.48004167</v>
       </c>
       <c r="AF20" t="n">
         <v>3.063518483301543e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>55</v>
+        <v>54.71354166666666</v>
       </c>
       <c r="AH20" t="n">
-        <v>1102161.990568055</v>
+        <v>1438577.803350042</v>
       </c>
     </row>
     <row r="21">
@@ -16486,28 +16486,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>889.565626486157</v>
+        <v>1161.381464634526</v>
       </c>
       <c r="AB21" t="n">
-        <v>1217.142935024038</v>
+        <v>1589.053356447085</v>
       </c>
       <c r="AC21" t="n">
-        <v>1100.980521576181</v>
+        <v>1437.396334358168</v>
       </c>
       <c r="AD21" t="n">
-        <v>889565.6264861571</v>
+        <v>1161381.464634526</v>
       </c>
       <c r="AE21" t="n">
-        <v>1217142.935024038</v>
+        <v>1589053.356447085</v>
       </c>
       <c r="AF21" t="n">
         <v>3.070983416482153e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>55</v>
+        <v>54.58333333333334</v>
       </c>
       <c r="AH21" t="n">
-        <v>1100980.521576181</v>
+        <v>1437396.334358168</v>
       </c>
     </row>
   </sheetData>
@@ -16783,28 +16783,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>763.3622769647827</v>
+        <v>1038.912177213371</v>
       </c>
       <c r="AB2" t="n">
-        <v>1044.465944510061</v>
+        <v>1421.485474433823</v>
       </c>
       <c r="AC2" t="n">
-        <v>944.7835806831799</v>
+        <v>1285.820895821252</v>
       </c>
       <c r="AD2" t="n">
-        <v>763362.2769647827</v>
+        <v>1038912.177213371</v>
       </c>
       <c r="AE2" t="n">
-        <v>1044465.944510061</v>
+        <v>1421485.474433823</v>
       </c>
       <c r="AF2" t="n">
         <v>5.165523226924723e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.15104166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>944783.5806831799</v>
+        <v>1285820.895821252</v>
       </c>
     </row>
     <row r="3">
@@ -16889,28 +16889,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>692.5874267340749</v>
+        <v>949.8597754828921</v>
       </c>
       <c r="AB3" t="n">
-        <v>947.6286720583799</v>
+        <v>1299.640049671492</v>
       </c>
       <c r="AC3" t="n">
-        <v>857.1883216023219</v>
+        <v>1175.60422738711</v>
       </c>
       <c r="AD3" t="n">
-        <v>692587.426734075</v>
+        <v>949859.7754828922</v>
       </c>
       <c r="AE3" t="n">
-        <v>947628.67205838</v>
+        <v>1299640.049671492</v>
       </c>
       <c r="AF3" t="n">
         <v>5.499594002627039e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.63541666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>857188.3216023219</v>
+        <v>1175604.22738711</v>
       </c>
     </row>
     <row r="4">
@@ -16995,28 +16995,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>691.6484368081564</v>
+        <v>948.8193003304882</v>
       </c>
       <c r="AB4" t="n">
-        <v>946.3439046164262</v>
+        <v>1298.216425665448</v>
       </c>
       <c r="AC4" t="n">
-        <v>856.0261705618458</v>
+        <v>1174.316472058134</v>
       </c>
       <c r="AD4" t="n">
-        <v>691648.4368081563</v>
+        <v>948819.3003304882</v>
       </c>
       <c r="AE4" t="n">
-        <v>946343.9046164262</v>
+        <v>1298216.425665448</v>
       </c>
       <c r="AF4" t="n">
         <v>5.514244205843265e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>55</v>
+        <v>54.47916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>856026.1705618458</v>
+        <v>1174316.472058134</v>
       </c>
     </row>
   </sheetData>
@@ -17292,28 +17292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1275.548639615179</v>
+        <v>1639.841172554153</v>
       </c>
       <c r="AB2" t="n">
-        <v>1745.261921955902</v>
+        <v>2243.703036975294</v>
       </c>
       <c r="AC2" t="n">
-        <v>1578.696573614922</v>
+        <v>2029.567168183361</v>
       </c>
       <c r="AD2" t="n">
-        <v>1275548.639615179</v>
+        <v>1639841.172554153</v>
       </c>
       <c r="AE2" t="n">
-        <v>1745261.921955902</v>
+        <v>2243703.036975294</v>
       </c>
       <c r="AF2" t="n">
         <v>2.527319044292799e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>74</v>
+        <v>73.88020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1578696.573614922</v>
+        <v>2029567.168183361</v>
       </c>
     </row>
     <row r="3">
@@ -17398,28 +17398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1036.682559190314</v>
+        <v>1343.377109620026</v>
       </c>
       <c r="AB3" t="n">
-        <v>1418.434812690871</v>
+        <v>1838.067826997439</v>
       </c>
       <c r="AC3" t="n">
-        <v>1283.061384953417</v>
+        <v>1662.6452133332</v>
       </c>
       <c r="AD3" t="n">
-        <v>1036682.559190314</v>
+        <v>1343377.109620026</v>
       </c>
       <c r="AE3" t="n">
-        <v>1418434.812690871</v>
+        <v>1838067.826997439</v>
       </c>
       <c r="AF3" t="n">
         <v>2.991551233050114e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>63</v>
+        <v>62.421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1283061.384953417</v>
+        <v>1662645.2133332</v>
       </c>
     </row>
     <row r="4">
@@ -17504,28 +17504,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>958.854747270463</v>
+        <v>1255.994008305505</v>
       </c>
       <c r="AB4" t="n">
-        <v>1311.947366901394</v>
+        <v>1718.506412708559</v>
       </c>
       <c r="AC4" t="n">
-        <v>1186.736951534019</v>
+        <v>1554.494572618552</v>
       </c>
       <c r="AD4" t="n">
-        <v>958854.747270463</v>
+        <v>1255994.008305505</v>
       </c>
       <c r="AE4" t="n">
-        <v>1311947.366901394</v>
+        <v>1718506.412708559</v>
       </c>
       <c r="AF4" t="n">
         <v>3.166875252437145e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>59</v>
+        <v>58.95833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1186736.951534019</v>
+        <v>1554494.572618552</v>
       </c>
     </row>
     <row r="5">
@@ -17610,28 +17610,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>929.6320020636846</v>
+        <v>1207.595386561398</v>
       </c>
       <c r="AB5" t="n">
-        <v>1271.96351769295</v>
+        <v>1652.285283241774</v>
       </c>
       <c r="AC5" t="n">
-        <v>1150.569104776343</v>
+        <v>1494.593494806139</v>
       </c>
       <c r="AD5" t="n">
-        <v>929632.0020636846</v>
+        <v>1207595.386561398</v>
       </c>
       <c r="AE5" t="n">
-        <v>1271963.51769295</v>
+        <v>1652285.283241774</v>
       </c>
       <c r="AF5" t="n">
         <v>3.256222380517407e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>58</v>
+        <v>57.34375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1150569.104776343</v>
+        <v>1494593.494806139</v>
       </c>
     </row>
     <row r="6">
@@ -17716,28 +17716,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>908.1321628127042</v>
+        <v>1186.162867118122</v>
       </c>
       <c r="AB6" t="n">
-        <v>1242.546489123793</v>
+        <v>1622.960364603459</v>
       </c>
       <c r="AC6" t="n">
-        <v>1123.959596126768</v>
+        <v>1468.067305244882</v>
       </c>
       <c r="AD6" t="n">
-        <v>908132.1628127042</v>
+        <v>1186162.867118122</v>
       </c>
       <c r="AE6" t="n">
-        <v>1242546.489123793</v>
+        <v>1622960.364603459</v>
       </c>
       <c r="AF6" t="n">
         <v>3.304839838654178e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>57</v>
+        <v>56.51041666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1123959.596126768</v>
+        <v>1468067.305244882</v>
       </c>
     </row>
     <row r="7">
@@ -17822,28 +17822,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>888.1412956926366</v>
+        <v>1166.137834579274</v>
       </c>
       <c r="AB7" t="n">
-        <v>1215.194102795303</v>
+        <v>1595.561231641721</v>
       </c>
       <c r="AC7" t="n">
-        <v>1099.217683160154</v>
+        <v>1443.283107078088</v>
       </c>
       <c r="AD7" t="n">
-        <v>888141.2956926366</v>
+        <v>1166137.834579274</v>
       </c>
       <c r="AE7" t="n">
-        <v>1215194.102795303</v>
+        <v>1595561.231641721</v>
       </c>
       <c r="AF7" t="n">
         <v>3.341625614501027e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>56</v>
+        <v>55.88541666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1099217.683160154</v>
+        <v>1443283.107078088</v>
       </c>
     </row>
     <row r="8">
@@ -17928,28 +17928,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>880.4292094833017</v>
+        <v>1148.804150197422</v>
       </c>
       <c r="AB8" t="n">
-        <v>1204.64208621046</v>
+        <v>1571.844519962287</v>
       </c>
       <c r="AC8" t="n">
-        <v>1089.67273622832</v>
+        <v>1421.829885074725</v>
       </c>
       <c r="AD8" t="n">
-        <v>880429.2094833017</v>
+        <v>1148804.150197422</v>
       </c>
       <c r="AE8" t="n">
-        <v>1204642.08621046</v>
+        <v>1571844.519962288</v>
       </c>
       <c r="AF8" t="n">
         <v>3.372961645777973e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>56</v>
+        <v>55.36458333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1089672.73622832</v>
+        <v>1421829.885074725</v>
       </c>
     </row>
     <row r="9">
@@ -18034,19 +18034,19 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>861.69162216753</v>
+        <v>1139.653995635386</v>
       </c>
       <c r="AB9" t="n">
-        <v>1179.00449260101</v>
+        <v>1559.324874814181</v>
       </c>
       <c r="AC9" t="n">
-        <v>1066.481958570367</v>
+        <v>1410.505097288122</v>
       </c>
       <c r="AD9" t="n">
-        <v>861691.62216753</v>
+        <v>1139653.995635386</v>
       </c>
       <c r="AE9" t="n">
-        <v>1179004.49260101</v>
+        <v>1559324.874814181</v>
       </c>
       <c r="AF9" t="n">
         <v>3.394832331222981e-06</v>
@@ -18055,7 +18055,7 @@
         <v>55</v>
       </c>
       <c r="AH9" t="n">
-        <v>1066481.958570367</v>
+        <v>1410505.097288122</v>
       </c>
     </row>
     <row r="10">
@@ -18140,28 +18140,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>856.0677897001145</v>
+        <v>1124.510050221939</v>
       </c>
       <c r="AB10" t="n">
-        <v>1171.309716913114</v>
+        <v>1538.604260595784</v>
       </c>
       <c r="AC10" t="n">
-        <v>1059.521561474439</v>
+        <v>1391.762029409164</v>
       </c>
       <c r="AD10" t="n">
-        <v>856067.7897001145</v>
+        <v>1124510.050221939</v>
       </c>
       <c r="AE10" t="n">
-        <v>1171309.716913114</v>
+        <v>1538604.260595784</v>
       </c>
       <c r="AF10" t="n">
         <v>3.409819128790216e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>55</v>
+        <v>54.765625</v>
       </c>
       <c r="AH10" t="n">
-        <v>1059521.561474439</v>
+        <v>1391762.029409164</v>
       </c>
     </row>
     <row r="11">
@@ -18246,28 +18246,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>850.2670054008048</v>
+        <v>1118.70926592263</v>
       </c>
       <c r="AB11" t="n">
-        <v>1163.372827922257</v>
+        <v>1530.667371604926</v>
       </c>
       <c r="AC11" t="n">
-        <v>1052.342158029375</v>
+        <v>1384.5826259641</v>
       </c>
       <c r="AD11" t="n">
-        <v>850267.0054008048</v>
+        <v>1118709.26592263</v>
       </c>
       <c r="AE11" t="n">
-        <v>1163372.827922257</v>
+        <v>1530667.371604926</v>
       </c>
       <c r="AF11" t="n">
         <v>3.417850331314284e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>55</v>
+        <v>54.63541666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1052342.158029375</v>
+        <v>1384582.6259641</v>
       </c>
     </row>
     <row r="12">
@@ -18352,28 +18352,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>843.2937631271859</v>
+        <v>1111.634538422525</v>
       </c>
       <c r="AB12" t="n">
-        <v>1153.831730205755</v>
+        <v>1520.987417324334</v>
       </c>
       <c r="AC12" t="n">
-        <v>1043.711649287921</v>
+        <v>1375.826512934146</v>
       </c>
       <c r="AD12" t="n">
-        <v>843293.7631271859</v>
+        <v>1111634.538422525</v>
       </c>
       <c r="AE12" t="n">
-        <v>1153831.730205755</v>
+        <v>1520987.417324334</v>
       </c>
       <c r="AF12" t="n">
         <v>3.43326737187388e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>55</v>
+        <v>54.40104166666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>1043711.649287921</v>
+        <v>1375826.512934146</v>
       </c>
     </row>
     <row r="13">
@@ -18458,28 +18458,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>839.2815507351959</v>
+        <v>1107.622326030535</v>
       </c>
       <c r="AB13" t="n">
-        <v>1148.342044204716</v>
+        <v>1515.497731323295</v>
       </c>
       <c r="AC13" t="n">
-        <v>1038.745891213998</v>
+        <v>1370.860754860224</v>
       </c>
       <c r="AD13" t="n">
-        <v>839281.5507351959</v>
+        <v>1107622.326030535</v>
       </c>
       <c r="AE13" t="n">
-        <v>1148342.044204716</v>
+        <v>1515497.731323295</v>
       </c>
       <c r="AF13" t="n">
         <v>3.440581502744014e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>55</v>
+        <v>54.27083333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>1038745.891213998</v>
+        <v>1370860.754860224</v>
       </c>
     </row>
     <row r="14">
@@ -18564,28 +18564,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>837.0457168107524</v>
+        <v>1105.386492106092</v>
       </c>
       <c r="AB14" t="n">
-        <v>1145.282877591261</v>
+        <v>1512.43856470984</v>
       </c>
       <c r="AC14" t="n">
-        <v>1035.978687168564</v>
+        <v>1368.09355081479</v>
       </c>
       <c r="AD14" t="n">
-        <v>837045.7168107524</v>
+        <v>1105386.492106092</v>
       </c>
       <c r="AE14" t="n">
-        <v>1145282.877591261</v>
+        <v>1512438.56470984</v>
       </c>
       <c r="AF14" t="n">
         <v>3.441370281563342e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>55</v>
+        <v>54.27083333333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>1035978.687168564</v>
+        <v>1368093.55081479</v>
       </c>
     </row>
     <row r="15">
@@ -18670,28 +18670,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>837.8714854057048</v>
+        <v>1106.212260701044</v>
       </c>
       <c r="AB15" t="n">
-        <v>1146.412730613214</v>
+        <v>1513.568417731793</v>
       </c>
       <c r="AC15" t="n">
-        <v>1037.000708603861</v>
+        <v>1369.115572250087</v>
       </c>
       <c r="AD15" t="n">
-        <v>837871.4854057048</v>
+        <v>1106212.260701044</v>
       </c>
       <c r="AE15" t="n">
-        <v>1146412.730613214</v>
+        <v>1513568.417731794</v>
       </c>
       <c r="AF15" t="n">
         <v>3.440366381247833e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>55</v>
+        <v>54.27083333333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>1037000.708603861</v>
+        <v>1369115.572250087</v>
       </c>
     </row>
   </sheetData>
@@ -18967,28 +18967,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1415.885412820689</v>
+        <v>1801.793379512621</v>
       </c>
       <c r="AB2" t="n">
-        <v>1937.27688627716</v>
+        <v>2465.293191362983</v>
       </c>
       <c r="AC2" t="n">
-        <v>1752.385899236054</v>
+        <v>2230.009069240025</v>
       </c>
       <c r="AD2" t="n">
-        <v>1415885.412820689</v>
+        <v>1801793.379512621</v>
       </c>
       <c r="AE2" t="n">
-        <v>1937276.88627716</v>
+        <v>2465293.191362983</v>
       </c>
       <c r="AF2" t="n">
         <v>2.259063113083814e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>79</v>
+        <v>78.02083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1752385.899236054</v>
+        <v>2230009.069240025</v>
       </c>
     </row>
     <row r="3">
@@ -19073,28 +19073,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1110.541323654806</v>
+        <v>1428.891657312728</v>
       </c>
       <c r="AB3" t="n">
-        <v>1519.491632649909</v>
+        <v>1955.072603786179</v>
       </c>
       <c r="AC3" t="n">
-        <v>1374.473483849702</v>
+        <v>1768.483218442459</v>
       </c>
       <c r="AD3" t="n">
-        <v>1110541.323654806</v>
+        <v>1428891.657312728</v>
       </c>
       <c r="AE3" t="n">
-        <v>1519491.632649909</v>
+        <v>1955072.603786179</v>
       </c>
       <c r="AF3" t="n">
         <v>2.742268157556049e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>65</v>
+        <v>64.27083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1374473.483849702</v>
+        <v>1768483.218442459</v>
       </c>
     </row>
     <row r="4">
@@ -19179,28 +19179,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1024.550088035915</v>
+        <v>1323.598240826977</v>
       </c>
       <c r="AB4" t="n">
-        <v>1401.83463041057</v>
+        <v>1811.005506132682</v>
       </c>
       <c r="AC4" t="n">
-        <v>1268.045500771445</v>
+        <v>1638.16568238957</v>
       </c>
       <c r="AD4" t="n">
-        <v>1024550.088035915</v>
+        <v>1323598.240826977</v>
       </c>
       <c r="AE4" t="n">
-        <v>1401834.63041057</v>
+        <v>1811005.506132682</v>
       </c>
       <c r="AF4" t="n">
         <v>2.924070755882485e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>61</v>
+        <v>60.28645833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1268045.500771445</v>
+        <v>1638165.68238957</v>
       </c>
     </row>
     <row r="5">
@@ -19285,28 +19285,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>983.0696989776341</v>
+        <v>1272.466761335266</v>
       </c>
       <c r="AB5" t="n">
-        <v>1345.079332115419</v>
+        <v>1741.045160130452</v>
       </c>
       <c r="AC5" t="n">
-        <v>1216.706848489022</v>
+        <v>1574.882253619831</v>
       </c>
       <c r="AD5" t="n">
-        <v>983069.6989776341</v>
+        <v>1272466.761335267</v>
       </c>
       <c r="AE5" t="n">
-        <v>1345079.332115419</v>
+        <v>1741045.160130452</v>
       </c>
       <c r="AF5" t="n">
         <v>3.014498258251852e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>59</v>
+        <v>58.46354166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1216706.848489022</v>
+        <v>1574882.253619831</v>
       </c>
     </row>
     <row r="6">
@@ -19391,28 +19391,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>959.8508777234524</v>
+        <v>1249.213774662304</v>
       </c>
       <c r="AB6" t="n">
-        <v>1313.310316533348</v>
+        <v>1709.229397915133</v>
       </c>
       <c r="AC6" t="n">
-        <v>1187.969823166011</v>
+        <v>1546.102943096639</v>
       </c>
       <c r="AD6" t="n">
-        <v>959850.8777234524</v>
+        <v>1249213.774662304</v>
       </c>
       <c r="AE6" t="n">
-        <v>1313310.316533349</v>
+        <v>1709229.397915134</v>
       </c>
       <c r="AF6" t="n">
         <v>3.06898488954477e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>58</v>
+        <v>57.421875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1187969.823166011</v>
+        <v>1546102.943096639</v>
       </c>
     </row>
     <row r="7">
@@ -19497,28 +19497,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>937.127807733023</v>
+        <v>1216.975264883711</v>
       </c>
       <c r="AB7" t="n">
-        <v>1282.219609701346</v>
+        <v>1665.119246573389</v>
       </c>
       <c r="AC7" t="n">
-        <v>1159.846369757974</v>
+        <v>1506.202602689965</v>
       </c>
       <c r="AD7" t="n">
-        <v>937127.8077330231</v>
+        <v>1216975.264883711</v>
       </c>
       <c r="AE7" t="n">
-        <v>1282219.609701346</v>
+        <v>1665119.246573389</v>
       </c>
       <c r="AF7" t="n">
         <v>3.116093827904859e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>57</v>
+        <v>56.5625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1159846.369757974</v>
+        <v>1506202.602689965</v>
       </c>
     </row>
     <row r="8">
@@ -19603,28 +19603,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>929.7672651438502</v>
+        <v>1199.930477472184</v>
       </c>
       <c r="AB8" t="n">
-        <v>1272.148590606619</v>
+        <v>1641.797816473989</v>
       </c>
       <c r="AC8" t="n">
-        <v>1150.736514590883</v>
+        <v>1485.106937147418</v>
       </c>
       <c r="AD8" t="n">
-        <v>929767.2651438502</v>
+        <v>1199930.477472184</v>
       </c>
       <c r="AE8" t="n">
-        <v>1272148.590606619</v>
+        <v>1641797.816473989</v>
       </c>
       <c r="AF8" t="n">
         <v>3.14425089451089e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>57</v>
+        <v>56.06770833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1150736.514590883</v>
+        <v>1485106.937147419</v>
       </c>
     </row>
     <row r="9">
@@ -19709,28 +19709,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>912.5344140544382</v>
+        <v>1192.347705786345</v>
       </c>
       <c r="AB9" t="n">
-        <v>1248.569843486351</v>
+        <v>1631.422733725147</v>
       </c>
       <c r="AC9" t="n">
-        <v>1129.408090002795</v>
+        <v>1475.722037734606</v>
       </c>
       <c r="AD9" t="n">
-        <v>912534.4140544382</v>
+        <v>1192347.705786345</v>
       </c>
       <c r="AE9" t="n">
-        <v>1248569.843486351</v>
+        <v>1631422.733725147</v>
       </c>
       <c r="AF9" t="n">
         <v>3.166248602796851e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>56</v>
+        <v>55.67708333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1129408.090002795</v>
+        <v>1475722.037734606</v>
       </c>
     </row>
     <row r="10">
@@ -19815,28 +19815,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>906.3906760602009</v>
+        <v>1176.519722969754</v>
       </c>
       <c r="AB10" t="n">
-        <v>1240.163710120045</v>
+        <v>1609.766189354167</v>
       </c>
       <c r="AC10" t="n">
-        <v>1121.804226206886</v>
+        <v>1456.132363563242</v>
       </c>
       <c r="AD10" t="n">
-        <v>906390.6760602009</v>
+        <v>1176519.722969754</v>
       </c>
       <c r="AE10" t="n">
-        <v>1240163.710120045</v>
+        <v>1609766.189354167</v>
       </c>
       <c r="AF10" t="n">
         <v>3.181748526481421e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>56</v>
+        <v>55.390625</v>
       </c>
       <c r="AH10" t="n">
-        <v>1121804.226206886</v>
+        <v>1456132.363563242</v>
       </c>
     </row>
     <row r="11">
@@ -19921,28 +19921,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>900.6914802920644</v>
+        <v>1170.820527201618</v>
       </c>
       <c r="AB11" t="n">
-        <v>1232.365819039308</v>
+        <v>1601.968298273431</v>
       </c>
       <c r="AC11" t="n">
-        <v>1114.750554906486</v>
+        <v>1449.078692262842</v>
       </c>
       <c r="AD11" t="n">
-        <v>900691.4802920644</v>
+        <v>1170820.527201618</v>
       </c>
       <c r="AE11" t="n">
-        <v>1232365.819039308</v>
+        <v>1601968.298273431</v>
       </c>
       <c r="AF11" t="n">
         <v>3.195353262990584e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>56</v>
+        <v>55.15625</v>
       </c>
       <c r="AH11" t="n">
-        <v>1114750.554906486</v>
+        <v>1449078.692262842</v>
       </c>
     </row>
     <row r="12">
@@ -20027,28 +20027,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>885.1388547962882</v>
+        <v>1164.917981109414</v>
       </c>
       <c r="AB12" t="n">
-        <v>1211.086030702575</v>
+        <v>1593.892174308123</v>
       </c>
       <c r="AC12" t="n">
-        <v>1095.501679702241</v>
+        <v>1441.773342233872</v>
       </c>
       <c r="AD12" t="n">
-        <v>885138.8547962882</v>
+        <v>1164917.981109414</v>
       </c>
       <c r="AE12" t="n">
-        <v>1211086.030702575</v>
+        <v>1593892.174308123</v>
       </c>
       <c r="AF12" t="n">
         <v>3.20597984822411e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>55</v>
+        <v>54.97395833333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1095501.679702241</v>
+        <v>1441773.342233872</v>
       </c>
     </row>
     <row r="13">
@@ -20133,28 +20133,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>878.6329555393013</v>
+        <v>1148.829322256559</v>
       </c>
       <c r="AB13" t="n">
-        <v>1202.184372319148</v>
+        <v>1571.878961484112</v>
       </c>
       <c r="AC13" t="n">
-        <v>1087.449583101371</v>
+        <v>1421.861039546046</v>
       </c>
       <c r="AD13" t="n">
-        <v>878632.9555393013</v>
+        <v>1148829.322256559</v>
       </c>
       <c r="AE13" t="n">
-        <v>1202184.372319147</v>
+        <v>1571878.961484112</v>
       </c>
       <c r="AF13" t="n">
         <v>3.220802919346034e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>55</v>
+        <v>54.73958333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>1087449.583101371</v>
+        <v>1421861.039546046</v>
       </c>
     </row>
     <row r="14">
@@ -20239,28 +20239,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>873.0085604572298</v>
+        <v>1143.204927174488</v>
       </c>
       <c r="AB14" t="n">
-        <v>1194.488826837059</v>
+        <v>1564.183416002023</v>
       </c>
       <c r="AC14" t="n">
-        <v>1080.488489679327</v>
+        <v>1414.899946124002</v>
       </c>
       <c r="AD14" t="n">
-        <v>873008.5604572298</v>
+        <v>1143204.927174488</v>
       </c>
       <c r="AE14" t="n">
-        <v>1194488.826837059</v>
+        <v>1564183.416002023</v>
       </c>
       <c r="AF14" t="n">
         <v>3.230143484710536e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>55</v>
+        <v>54.55729166666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>1080488.489679327</v>
+        <v>1414899.946124002</v>
       </c>
     </row>
     <row r="15">
@@ -20345,28 +20345,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>869.5903404256236</v>
+        <v>1139.786707142881</v>
       </c>
       <c r="AB15" t="n">
-        <v>1189.81186738859</v>
+        <v>1559.506456553554</v>
       </c>
       <c r="AC15" t="n">
-        <v>1076.257892676466</v>
+        <v>1410.669349121141</v>
       </c>
       <c r="AD15" t="n">
-        <v>869590.3404256236</v>
+        <v>1139786.707142881</v>
       </c>
       <c r="AE15" t="n">
-        <v>1189811.86738859</v>
+        <v>1559506.456553554</v>
       </c>
       <c r="AF15" t="n">
         <v>3.226420795615988e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>55</v>
+        <v>54.63541666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>1076257.892676466</v>
+        <v>1410669.349121141</v>
       </c>
     </row>
     <row r="16">
@@ -20451,28 +20451,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>867.6249974697138</v>
+        <v>1137.719878960486</v>
       </c>
       <c r="AB16" t="n">
-        <v>1187.122798451503</v>
+        <v>1556.678531052377</v>
       </c>
       <c r="AC16" t="n">
-        <v>1073.825464704602</v>
+        <v>1408.111316860778</v>
       </c>
       <c r="AD16" t="n">
-        <v>867624.9974697138</v>
+        <v>1137719.878960486</v>
       </c>
       <c r="AE16" t="n">
-        <v>1187122.798451503</v>
+        <v>1556678.531052377</v>
       </c>
       <c r="AF16" t="n">
         <v>3.234949137905314e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>55</v>
+        <v>54.47916666666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>1073825.464704602</v>
+        <v>1408111.316860778</v>
       </c>
     </row>
     <row r="17">
@@ -20557,28 +20557,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>863.8811787708858</v>
+        <v>1133.976060261658</v>
       </c>
       <c r="AB17" t="n">
-        <v>1182.000340542142</v>
+        <v>1551.556073143017</v>
       </c>
       <c r="AC17" t="n">
-        <v>1069.191886988696</v>
+        <v>1403.477739144872</v>
       </c>
       <c r="AD17" t="n">
-        <v>863881.1787708858</v>
+        <v>1133976.060261658</v>
       </c>
       <c r="AE17" t="n">
-        <v>1182000.340542142</v>
+        <v>1551556.073143017</v>
       </c>
       <c r="AF17" t="n">
         <v>3.235152193674107e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>55</v>
+        <v>54.47916666666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>1069191.886988696</v>
+        <v>1403477.739144872</v>
       </c>
     </row>
     <row r="18">
@@ -20663,28 +20663,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>863.7895843433638</v>
+        <v>1133.884465834136</v>
       </c>
       <c r="AB18" t="n">
-        <v>1181.875017005545</v>
+        <v>1551.43074960642</v>
       </c>
       <c r="AC18" t="n">
-        <v>1069.07852415454</v>
+        <v>1403.364376310715</v>
       </c>
       <c r="AD18" t="n">
-        <v>863789.5843433638</v>
+        <v>1133884.465834136</v>
       </c>
       <c r="AE18" t="n">
-        <v>1181875.017005545</v>
+        <v>1551430.74960642</v>
       </c>
       <c r="AF18" t="n">
         <v>3.242326830838144e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>55</v>
+        <v>54.375</v>
       </c>
       <c r="AH18" t="n">
-        <v>1069078.52415454</v>
+        <v>1403364.376310715</v>
       </c>
     </row>
   </sheetData>
@@ -20960,28 +20960,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1697.021598635608</v>
+        <v>2136.246676333969</v>
       </c>
       <c r="AB2" t="n">
-        <v>2321.939818562301</v>
+        <v>2922.906947112049</v>
       </c>
       <c r="AC2" t="n">
-        <v>2100.337141141718</v>
+        <v>2643.948810405341</v>
       </c>
       <c r="AD2" t="n">
-        <v>1697021.598635608</v>
+        <v>2136246.676333969</v>
       </c>
       <c r="AE2" t="n">
-        <v>2321939.818562301</v>
+        <v>2922906.947112049</v>
       </c>
       <c r="AF2" t="n">
         <v>1.844100589270079e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>87</v>
+        <v>86.90104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2100337.141141718</v>
+        <v>2643948.810405341</v>
       </c>
     </row>
     <row r="3">
@@ -21066,28 +21066,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1264.435227362571</v>
+        <v>1605.998800904296</v>
       </c>
       <c r="AB3" t="n">
-        <v>1730.056061022738</v>
+        <v>2197.398411063895</v>
       </c>
       <c r="AC3" t="n">
-        <v>1564.94193870766</v>
+        <v>1987.681790779995</v>
       </c>
       <c r="AD3" t="n">
-        <v>1264435.227362571</v>
+        <v>1605998.800904296</v>
       </c>
       <c r="AE3" t="n">
-        <v>1730056.061022738</v>
+        <v>2197398.411063895</v>
       </c>
       <c r="AF3" t="n">
         <v>2.343289407819615e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>69</v>
+        <v>68.38541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1564941.938707659</v>
+        <v>1987681.790779995</v>
       </c>
     </row>
     <row r="4">
@@ -21172,28 +21172,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1147.52115784926</v>
+        <v>1459.830391879452</v>
       </c>
       <c r="AB4" t="n">
-        <v>1570.089073229904</v>
+        <v>1997.404345341009</v>
       </c>
       <c r="AC4" t="n">
-        <v>1420.241975714696</v>
+        <v>1806.774877996268</v>
       </c>
       <c r="AD4" t="n">
-        <v>1147521.15784926</v>
+        <v>1459830.391879452</v>
       </c>
       <c r="AE4" t="n">
-        <v>1570089.073229904</v>
+        <v>1997404.345341009</v>
       </c>
       <c r="AF4" t="n">
         <v>2.540429919915352e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>64</v>
+        <v>63.07291666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1420241.975714696</v>
+        <v>1806774.877996268</v>
       </c>
     </row>
     <row r="5">
@@ -21278,28 +21278,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1084.714279553241</v>
+        <v>1387.226513187882</v>
       </c>
       <c r="AB5" t="n">
-        <v>1484.153931501377</v>
+        <v>1898.064515458135</v>
       </c>
       <c r="AC5" t="n">
-        <v>1342.508363302011</v>
+        <v>1716.915902053088</v>
       </c>
       <c r="AD5" t="n">
-        <v>1084714.279553241</v>
+        <v>1387226.513187882</v>
       </c>
       <c r="AE5" t="n">
-        <v>1484153.931501377</v>
+        <v>1898064.515458135</v>
       </c>
       <c r="AF5" t="n">
         <v>2.649952426635206e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>61</v>
+        <v>60.46875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1342508.363302011</v>
+        <v>1716915.902053088</v>
       </c>
     </row>
     <row r="6">
@@ -21384,28 +21384,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1058.898602062471</v>
+        <v>1351.682166139122</v>
       </c>
       <c r="AB6" t="n">
-        <v>1448.831782651195</v>
+        <v>1849.431171720101</v>
       </c>
       <c r="AC6" t="n">
-        <v>1310.557310763143</v>
+        <v>1672.924056384086</v>
       </c>
       <c r="AD6" t="n">
-        <v>1058898.602062471</v>
+        <v>1351682.166139122</v>
       </c>
       <c r="AE6" t="n">
-        <v>1448831.782651195</v>
+        <v>1849431.171720101</v>
       </c>
       <c r="AF6" t="n">
         <v>2.705821210961963e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>60</v>
+        <v>59.21875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1310557.310763143</v>
+        <v>1672924.056384086</v>
       </c>
     </row>
     <row r="7">
@@ -21490,28 +21490,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1033.77211899938</v>
+        <v>1326.52151765725</v>
       </c>
       <c r="AB7" t="n">
-        <v>1414.452620022075</v>
+        <v>1815.005262457733</v>
       </c>
       <c r="AC7" t="n">
-        <v>1279.459247163888</v>
+        <v>1641.783707584651</v>
       </c>
       <c r="AD7" t="n">
-        <v>1033772.11899938</v>
+        <v>1326521.51765725</v>
       </c>
       <c r="AE7" t="n">
-        <v>1414452.620022075</v>
+        <v>1815005.262457733</v>
       </c>
       <c r="AF7" t="n">
         <v>2.756521517443514e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>59</v>
+        <v>58.125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1279459.247163888</v>
+        <v>1641783.707584651</v>
       </c>
     </row>
     <row r="8">
@@ -21596,28 +21596,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1014.764994274033</v>
+        <v>1307.581712739607</v>
       </c>
       <c r="AB8" t="n">
-        <v>1388.446233437693</v>
+        <v>1789.090985804192</v>
       </c>
       <c r="AC8" t="n">
-        <v>1255.934873614927</v>
+        <v>1618.342653124009</v>
       </c>
       <c r="AD8" t="n">
-        <v>1014764.994274033</v>
+        <v>1307581.712739607</v>
       </c>
       <c r="AE8" t="n">
-        <v>1388446.233437693</v>
+        <v>1789090.985804192</v>
       </c>
       <c r="AF8" t="n">
         <v>2.785563440573722e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>58</v>
+        <v>57.52604166666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1255934.873614927</v>
+        <v>1618342.653124009</v>
       </c>
     </row>
     <row r="9">
@@ -21702,28 +21702,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1008.520023714176</v>
+        <v>1291.540752814055</v>
       </c>
       <c r="AB9" t="n">
-        <v>1379.901589209041</v>
+        <v>1767.143036756846</v>
       </c>
       <c r="AC9" t="n">
-        <v>1248.205718238974</v>
+        <v>1598.489385529602</v>
       </c>
       <c r="AD9" t="n">
-        <v>1008520.023714176</v>
+        <v>1291540.752814055</v>
       </c>
       <c r="AE9" t="n">
-        <v>1379901.589209041</v>
+        <v>1767143.036756846</v>
       </c>
       <c r="AF9" t="n">
         <v>2.805806645467448e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>58</v>
+        <v>57.109375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1248205.718238974</v>
+        <v>1598489.385529601</v>
       </c>
     </row>
     <row r="10">
@@ -21808,28 +21808,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>991.3116759223479</v>
+        <v>1274.399724829932</v>
       </c>
       <c r="AB10" t="n">
-        <v>1356.356368581537</v>
+        <v>1743.689926060184</v>
       </c>
       <c r="AC10" t="n">
-        <v>1226.907620422234</v>
+        <v>1577.274606801181</v>
       </c>
       <c r="AD10" t="n">
-        <v>991311.6759223479</v>
+        <v>1274399.724829932</v>
       </c>
       <c r="AE10" t="n">
-        <v>1356356.368581537</v>
+        <v>1743689.926060184</v>
       </c>
       <c r="AF10" t="n">
         <v>2.829064795770877e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>57</v>
+        <v>56.640625</v>
       </c>
       <c r="AH10" t="n">
-        <v>1226907.620422234</v>
+        <v>1577274.606801181</v>
       </c>
     </row>
     <row r="11">
@@ -21914,28 +21914,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>985.0998200957919</v>
+        <v>1268.08638377689</v>
       </c>
       <c r="AB11" t="n">
-        <v>1347.857033391905</v>
+        <v>1735.051734306463</v>
       </c>
       <c r="AC11" t="n">
-        <v>1219.219449854209</v>
+        <v>1569.460831944657</v>
       </c>
       <c r="AD11" t="n">
-        <v>985099.8200957918</v>
+        <v>1268086.38377689</v>
       </c>
       <c r="AE11" t="n">
-        <v>1347857.033391905</v>
+        <v>1735051.734306463</v>
       </c>
       <c r="AF11" t="n">
         <v>2.84450869980834e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>57</v>
+        <v>56.328125</v>
       </c>
       <c r="AH11" t="n">
-        <v>1219219.449854209</v>
+        <v>1569460.831944657</v>
       </c>
     </row>
     <row r="12">
@@ -22020,28 +22020,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>979.597810465954</v>
+        <v>1252.889870007843</v>
       </c>
       <c r="AB12" t="n">
-        <v>1340.328941084827</v>
+        <v>1714.259193744781</v>
       </c>
       <c r="AC12" t="n">
-        <v>1212.409828111174</v>
+        <v>1550.652702271668</v>
       </c>
       <c r="AD12" t="n">
-        <v>979597.810465954</v>
+        <v>1252889.870007843</v>
       </c>
       <c r="AE12" t="n">
-        <v>1340328.941084827</v>
+        <v>1714259.19374478</v>
       </c>
       <c r="AF12" t="n">
         <v>2.859706485853174e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>57</v>
+        <v>56.04166666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>1212409.828111175</v>
+        <v>1550652.702271668</v>
       </c>
     </row>
     <row r="13">
@@ -22126,28 +22126,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>966.5749295420995</v>
+        <v>1249.628813030903</v>
       </c>
       <c r="AB13" t="n">
-        <v>1322.510460875852</v>
+        <v>1709.797271721251</v>
       </c>
       <c r="AC13" t="n">
-        <v>1196.29191864495</v>
+        <v>1546.616619823717</v>
       </c>
       <c r="AD13" t="n">
-        <v>966574.9295420996</v>
+        <v>1249628.813030903</v>
       </c>
       <c r="AE13" t="n">
-        <v>1322510.460875852</v>
+        <v>1709797.271721251</v>
       </c>
       <c r="AF13" t="n">
         <v>2.865121081691009e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>56</v>
+        <v>55.9375</v>
       </c>
       <c r="AH13" t="n">
-        <v>1196291.91864495</v>
+        <v>1546616.619823717</v>
       </c>
     </row>
     <row r="14">
@@ -22232,28 +22232,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>961.0461109863807</v>
+        <v>1244.099994475184</v>
       </c>
       <c r="AB14" t="n">
-        <v>1314.945687413657</v>
+        <v>1702.232498259056</v>
       </c>
       <c r="AC14" t="n">
-        <v>1189.44911654476</v>
+        <v>1539.773817723528</v>
       </c>
       <c r="AD14" t="n">
-        <v>961046.1109863806</v>
+        <v>1244099.994475184</v>
       </c>
       <c r="AE14" t="n">
-        <v>1314945.687413657</v>
+        <v>1702232.498259056</v>
       </c>
       <c r="AF14" t="n">
         <v>2.876442509351938e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>56</v>
+        <v>55.703125</v>
       </c>
       <c r="AH14" t="n">
-        <v>1189449.11654476</v>
+        <v>1539773.817723528</v>
       </c>
     </row>
     <row r="15">
@@ -22338,28 +22338,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>958.7174478303564</v>
+        <v>1241.771331319159</v>
       </c>
       <c r="AB15" t="n">
-        <v>1311.759507750217</v>
+        <v>1699.046318595616</v>
       </c>
       <c r="AC15" t="n">
-        <v>1186.567021396567</v>
+        <v>1536.891722575335</v>
       </c>
       <c r="AD15" t="n">
-        <v>958717.4478303564</v>
+        <v>1241771.331319159</v>
       </c>
       <c r="AE15" t="n">
-        <v>1311759.507750217</v>
+        <v>1699046.318595616</v>
       </c>
       <c r="AF15" t="n">
         <v>2.882226282178717e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>56</v>
+        <v>55.59895833333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>1186567.021396568</v>
+        <v>1536891.722575335</v>
       </c>
     </row>
     <row r="16">
@@ -22444,28 +22444,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>954.8977741330599</v>
+        <v>1237.850172395378</v>
       </c>
       <c r="AB16" t="n">
-        <v>1306.533261685465</v>
+        <v>1693.681215966775</v>
       </c>
       <c r="AC16" t="n">
-        <v>1181.839560921153</v>
+        <v>1532.038657811421</v>
       </c>
       <c r="AD16" t="n">
-        <v>954897.7741330599</v>
+        <v>1237850.172395378</v>
       </c>
       <c r="AE16" t="n">
-        <v>1306533.261685465</v>
+        <v>1693681.215966775</v>
       </c>
       <c r="AF16" t="n">
         <v>2.887210171529451e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>56</v>
+        <v>55.49479166666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>1181839.560921154</v>
+        <v>1532038.657811421</v>
       </c>
     </row>
     <row r="17">
@@ -22550,28 +22550,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>949.7197050922216</v>
+        <v>1222.97759921533</v>
       </c>
       <c r="AB17" t="n">
-        <v>1299.448399183507</v>
+        <v>1673.331905210212</v>
       </c>
       <c r="AC17" t="n">
-        <v>1175.430867752715</v>
+        <v>1513.631456713028</v>
       </c>
       <c r="AD17" t="n">
-        <v>949719.7050922216</v>
+        <v>1222977.59921533</v>
       </c>
       <c r="AE17" t="n">
-        <v>1299448.399183507</v>
+        <v>1673331.905210212</v>
       </c>
       <c r="AF17" t="n">
         <v>2.897608656718021e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>56</v>
+        <v>55.28645833333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>1175430.867752715</v>
+        <v>1513631.456713028</v>
       </c>
     </row>
     <row r="18">
@@ -22656,28 +22656,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>944.0917887541893</v>
+        <v>1217.349682877297</v>
       </c>
       <c r="AB18" t="n">
-        <v>1291.748035763665</v>
+        <v>1665.631541790371</v>
       </c>
       <c r="AC18" t="n">
-        <v>1168.465416210135</v>
+        <v>1506.666005170449</v>
       </c>
       <c r="AD18" t="n">
-        <v>944091.7887541894</v>
+        <v>1217349.682877298</v>
       </c>
       <c r="AE18" t="n">
-        <v>1291748.035763665</v>
+        <v>1665631.541790371</v>
       </c>
       <c r="AF18" t="n">
         <v>2.90517678499136e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>56</v>
+        <v>55.15625</v>
       </c>
       <c r="AH18" t="n">
-        <v>1168465.416210135</v>
+        <v>1506666.005170449</v>
       </c>
     </row>
     <row r="19">
@@ -22762,28 +22762,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>943.8958524282866</v>
+        <v>1217.153746551395</v>
       </c>
       <c r="AB19" t="n">
-        <v>1291.479947038464</v>
+        <v>1665.36345306517</v>
       </c>
       <c r="AC19" t="n">
-        <v>1168.222913496603</v>
+        <v>1506.423502456916</v>
       </c>
       <c r="AD19" t="n">
-        <v>943895.8524282866</v>
+        <v>1217153.746551395</v>
       </c>
       <c r="AE19" t="n">
-        <v>1291479.947038464</v>
+        <v>1665363.45306517</v>
       </c>
       <c r="AF19" t="n">
         <v>2.90517678499136e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>56</v>
+        <v>55.15625</v>
       </c>
       <c r="AH19" t="n">
-        <v>1168222.913496603</v>
+        <v>1506423.502456916</v>
       </c>
     </row>
     <row r="20">
@@ -22868,19 +22868,19 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>927.8277351279812</v>
+        <v>1210.847453198004</v>
       </c>
       <c r="AB20" t="n">
-        <v>1269.494840072881</v>
+        <v>1656.734904285033</v>
       </c>
       <c r="AC20" t="n">
-        <v>1148.336034283523</v>
+        <v>1498.61845026211</v>
       </c>
       <c r="AD20" t="n">
-        <v>927827.7351279812</v>
+        <v>1210847.453198004</v>
       </c>
       <c r="AE20" t="n">
-        <v>1269494.840072881</v>
+        <v>1656734.904285033</v>
       </c>
       <c r="AF20" t="n">
         <v>2.913421737744428e-06</v>
@@ -22889,7 +22889,7 @@
         <v>55</v>
       </c>
       <c r="AH20" t="n">
-        <v>1148336.034283523</v>
+        <v>1498618.45026211</v>
       </c>
     </row>
     <row r="21">
@@ -22974,19 +22974,19 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>927.2483604723692</v>
+        <v>1210.268078542392</v>
       </c>
       <c r="AB21" t="n">
-        <v>1268.702114108867</v>
+        <v>1655.942178321018</v>
       </c>
       <c r="AC21" t="n">
-        <v>1147.618964972917</v>
+        <v>1497.901380951504</v>
       </c>
       <c r="AD21" t="n">
-        <v>927248.3604723692</v>
+        <v>1210268.078542392</v>
       </c>
       <c r="AE21" t="n">
-        <v>1268702.114108867</v>
+        <v>1655942.178321018</v>
       </c>
       <c r="AF21" t="n">
         <v>2.913544796740742e-06</v>
@@ -22995,7 +22995,7 @@
         <v>55</v>
       </c>
       <c r="AH21" t="n">
-        <v>1147618.964972917</v>
+        <v>1497901.380951504</v>
       </c>
     </row>
     <row r="22">
@@ -23080,28 +23080,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>921.3307808965172</v>
+        <v>1204.35049896654</v>
       </c>
       <c r="AB22" t="n">
-        <v>1260.605420668001</v>
+        <v>1647.845484880152</v>
       </c>
       <c r="AC22" t="n">
-        <v>1140.295008590266</v>
+        <v>1490.577424568853</v>
       </c>
       <c r="AD22" t="n">
-        <v>921330.7808965172</v>
+        <v>1204350.49896654</v>
       </c>
       <c r="AE22" t="n">
-        <v>1260605.420668001</v>
+        <v>1647845.484880152</v>
       </c>
       <c r="AF22" t="n">
         <v>2.91957468756015e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>55</v>
+        <v>54.86979166666666</v>
       </c>
       <c r="AH22" t="n">
-        <v>1140295.008590266</v>
+        <v>1490577.424568853</v>
       </c>
     </row>
     <row r="23">
@@ -23186,28 +23186,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>920.587034370728</v>
+        <v>1203.60675244075</v>
       </c>
       <c r="AB23" t="n">
-        <v>1259.587793859635</v>
+        <v>1646.827858071786</v>
       </c>
       <c r="AC23" t="n">
-        <v>1139.374502656242</v>
+        <v>1489.65691863483</v>
       </c>
       <c r="AD23" t="n">
-        <v>920587.0343707281</v>
+        <v>1203606.75244075</v>
       </c>
       <c r="AE23" t="n">
-        <v>1259587.793859635</v>
+        <v>1646827.858071786</v>
       </c>
       <c r="AF23" t="n">
         <v>2.920374571036194e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>55</v>
+        <v>54.86979166666666</v>
       </c>
       <c r="AH23" t="n">
-        <v>1139374.502656242</v>
+        <v>1489656.91863483</v>
       </c>
     </row>
     <row r="24">
@@ -23292,28 +23292,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>918.7409036734656</v>
+        <v>1201.760621743488</v>
       </c>
       <c r="AB24" t="n">
-        <v>1257.061836394102</v>
+        <v>1644.301900606253</v>
       </c>
       <c r="AC24" t="n">
-        <v>1137.089619026016</v>
+        <v>1487.372035004604</v>
       </c>
       <c r="AD24" t="n">
-        <v>918740.9036734656</v>
+        <v>1201760.621743488</v>
       </c>
       <c r="AE24" t="n">
-        <v>1257061.836394102</v>
+        <v>1644301.900606253</v>
       </c>
       <c r="AF24" t="n">
         <v>2.921728219995652e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>55</v>
+        <v>54.84375</v>
       </c>
       <c r="AH24" t="n">
-        <v>1137089.619026016</v>
+        <v>1487372.035004604</v>
       </c>
     </row>
     <row r="25">
@@ -23398,28 +23398,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>919.0473713939772</v>
+        <v>1202.067089464</v>
       </c>
       <c r="AB25" t="n">
-        <v>1257.481159049707</v>
+        <v>1644.721223261859</v>
       </c>
       <c r="AC25" t="n">
-        <v>1137.468922115894</v>
+        <v>1487.751338094482</v>
       </c>
       <c r="AD25" t="n">
-        <v>919047.3713939772</v>
+        <v>1202067.089463999</v>
       </c>
       <c r="AE25" t="n">
-        <v>1257481.159049707</v>
+        <v>1644721.223261859</v>
       </c>
       <c r="AF25" t="n">
         <v>2.92111292501408e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>55</v>
+        <v>54.84375</v>
       </c>
       <c r="AH25" t="n">
-        <v>1137468.922115894</v>
+        <v>1487751.338094481</v>
       </c>
     </row>
     <row r="26">
@@ -23504,28 +23504,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>920.1936501863855</v>
+        <v>1203.213368256408</v>
       </c>
       <c r="AB26" t="n">
-        <v>1259.049548263732</v>
+        <v>1646.289612475883</v>
       </c>
       <c r="AC26" t="n">
-        <v>1138.88762646458</v>
+        <v>1489.170042443167</v>
       </c>
       <c r="AD26" t="n">
-        <v>920193.6501863855</v>
+        <v>1203213.368256408</v>
       </c>
       <c r="AE26" t="n">
-        <v>1259049.548263732</v>
+        <v>1646289.612475883</v>
       </c>
       <c r="AF26" t="n">
         <v>2.92111292501408e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>55</v>
+        <v>54.84375</v>
       </c>
       <c r="AH26" t="n">
-        <v>1138887.62646458</v>
+        <v>1489170.042443167</v>
       </c>
     </row>
   </sheetData>
@@ -23801,28 +23801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1162.860975695889</v>
+        <v>1505.436036662041</v>
       </c>
       <c r="AB2" t="n">
-        <v>1591.077688752663</v>
+        <v>2059.804000511595</v>
       </c>
       <c r="AC2" t="n">
-        <v>1439.227467229669</v>
+        <v>1863.21919765584</v>
       </c>
       <c r="AD2" t="n">
-        <v>1162860.975695889</v>
+        <v>1505436.036662041</v>
       </c>
       <c r="AE2" t="n">
-        <v>1591077.688752663</v>
+        <v>2059804.000511596</v>
       </c>
       <c r="AF2" t="n">
         <v>2.845931839138693e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>71</v>
+        <v>70.18229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1439227.467229669</v>
+        <v>1863219.19765584</v>
       </c>
     </row>
     <row r="3">
@@ -23907,28 +23907,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>963.5609951083082</v>
+        <v>1258.638831354916</v>
       </c>
       <c r="AB3" t="n">
-        <v>1318.386662818135</v>
+        <v>1722.12517628612</v>
       </c>
       <c r="AC3" t="n">
-        <v>1192.561690086075</v>
+        <v>1557.767966479237</v>
       </c>
       <c r="AD3" t="n">
-        <v>963560.9951083083</v>
+        <v>1258638.831354916</v>
       </c>
       <c r="AE3" t="n">
-        <v>1318386.662818135</v>
+        <v>1722125.17628612</v>
       </c>
       <c r="AF3" t="n">
         <v>3.296117111196938e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>61</v>
+        <v>60.59895833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1192561.690086075</v>
+        <v>1557767.966479237</v>
       </c>
     </row>
     <row r="4">
@@ -24013,28 +24013,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>904.1815792938052</v>
+        <v>1189.705508132425</v>
       </c>
       <c r="AB4" t="n">
-        <v>1237.141126465791</v>
+        <v>1627.80756232952</v>
       </c>
       <c r="AC4" t="n">
-        <v>1119.070113694371</v>
+        <v>1472.451893223053</v>
       </c>
       <c r="AD4" t="n">
-        <v>904181.5792938052</v>
+        <v>1189705.508132425</v>
       </c>
       <c r="AE4" t="n">
-        <v>1237141.126465791</v>
+        <v>1627807.56232952</v>
       </c>
       <c r="AF4" t="n">
         <v>3.452596571922584e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>58</v>
+        <v>57.86458333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1119070.113694371</v>
+        <v>1472451.893223053</v>
       </c>
     </row>
     <row r="5">
@@ -24119,28 +24119,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>877.350509748723</v>
+        <v>1153.287376790433</v>
       </c>
       <c r="AB5" t="n">
-        <v>1200.429673410963</v>
+        <v>1577.978668372843</v>
       </c>
       <c r="AC5" t="n">
-        <v>1085.862350194248</v>
+        <v>1427.378598970309</v>
       </c>
       <c r="AD5" t="n">
-        <v>877350.509748723</v>
+        <v>1153287.376790433</v>
       </c>
       <c r="AE5" t="n">
-        <v>1200429.673410963</v>
+        <v>1577978.668372843</v>
       </c>
       <c r="AF5" t="n">
         <v>3.538583569703687e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>57</v>
+        <v>56.45833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1085862.350194248</v>
+        <v>1427378.598970309</v>
       </c>
     </row>
     <row r="6">
@@ -24225,28 +24225,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>855.2824714935</v>
+        <v>1131.286658342915</v>
       </c>
       <c r="AB6" t="n">
-        <v>1170.235209897031</v>
+        <v>1547.876314789753</v>
       </c>
       <c r="AC6" t="n">
-        <v>1058.54960389989</v>
+        <v>1400.14917176427</v>
       </c>
       <c r="AD6" t="n">
-        <v>855282.4714935001</v>
+        <v>1131286.658342914</v>
       </c>
       <c r="AE6" t="n">
-        <v>1170235.209897031</v>
+        <v>1547876.314789752</v>
       </c>
       <c r="AF6" t="n">
         <v>3.591203623653586e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>56</v>
+        <v>55.625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1058549.60389989</v>
+        <v>1400149.17176427</v>
       </c>
     </row>
     <row r="7">
@@ -24331,28 +24331,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>845.7788567208609</v>
+        <v>1112.230147192145</v>
       </c>
       <c r="AB7" t="n">
-        <v>1157.231944895213</v>
+        <v>1521.802355519333</v>
       </c>
       <c r="AC7" t="n">
-        <v>1046.787352259648</v>
+        <v>1376.563674571588</v>
       </c>
       <c r="AD7" t="n">
-        <v>845778.8567208608</v>
+        <v>1112230.147192145</v>
       </c>
       <c r="AE7" t="n">
-        <v>1157231.944895213</v>
+        <v>1521802.355519333</v>
       </c>
       <c r="AF7" t="n">
         <v>3.627638792204901e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>56</v>
+        <v>55.05208333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1046787.352259648</v>
+        <v>1376563.674571588</v>
       </c>
     </row>
     <row r="8">
@@ -24437,28 +24437,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>826.058334345806</v>
+        <v>1092.576944624795</v>
       </c>
       <c r="AB8" t="n">
-        <v>1130.249456173617</v>
+        <v>1494.911976728579</v>
       </c>
       <c r="AC8" t="n">
-        <v>1022.380034391481</v>
+        <v>1352.23967579174</v>
       </c>
       <c r="AD8" t="n">
-        <v>826058.3343458059</v>
+        <v>1092576.944624795</v>
       </c>
       <c r="AE8" t="n">
-        <v>1130249.456173617</v>
+        <v>1494911.976728579</v>
       </c>
       <c r="AF8" t="n">
         <v>3.650880594459739e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>55</v>
+        <v>54.71354166666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1022380.034391481</v>
+        <v>1352239.67579174</v>
       </c>
     </row>
     <row r="9">
@@ -24543,28 +24543,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>819.822081492988</v>
+        <v>1086.239206545492</v>
       </c>
       <c r="AB9" t="n">
-        <v>1121.716739896333</v>
+        <v>1486.240403887206</v>
       </c>
       <c r="AC9" t="n">
-        <v>1014.661668579959</v>
+        <v>1344.395705691718</v>
       </c>
       <c r="AD9" t="n">
-        <v>819822.081492988</v>
+        <v>1086239.206545492</v>
       </c>
       <c r="AE9" t="n">
-        <v>1121716.739896333</v>
+        <v>1486240.403887206</v>
       </c>
       <c r="AF9" t="n">
         <v>3.673278634916547e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>55</v>
+        <v>54.375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1014661.668579959</v>
+        <v>1344395.705691718</v>
       </c>
     </row>
     <row r="10">
@@ -24649,28 +24649,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>813.0133633355925</v>
+        <v>1079.430488388096</v>
       </c>
       <c r="AB10" t="n">
-        <v>1112.400751333939</v>
+        <v>1476.924415324812</v>
       </c>
       <c r="AC10" t="n">
-        <v>1006.234784890888</v>
+        <v>1335.968822002647</v>
       </c>
       <c r="AD10" t="n">
-        <v>813013.3633355926</v>
+        <v>1079430.488388096</v>
       </c>
       <c r="AE10" t="n">
-        <v>1112400.751333939</v>
+        <v>1476924.415324812</v>
       </c>
       <c r="AF10" t="n">
         <v>3.687392468629056e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>55</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1006234.784890888</v>
+        <v>1335968.822002647</v>
       </c>
     </row>
     <row r="11">
@@ -24755,28 +24755,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>808.8191096067851</v>
+        <v>1065.784823507644</v>
       </c>
       <c r="AB11" t="n">
-        <v>1106.66198834477</v>
+        <v>1458.253814631131</v>
       </c>
       <c r="AC11" t="n">
-        <v>1001.043721387</v>
+        <v>1319.080117234818</v>
       </c>
       <c r="AD11" t="n">
-        <v>808819.1096067851</v>
+        <v>1065784.823507644</v>
       </c>
       <c r="AE11" t="n">
-        <v>1106661.98834477</v>
+        <v>1458253.814631131</v>
       </c>
       <c r="AF11" t="n">
         <v>3.696980670879403e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>55</v>
+        <v>54.03645833333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1001043.721387</v>
+        <v>1319080.117234818</v>
       </c>
     </row>
     <row r="12">
@@ -24861,28 +24861,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>810.8383945038526</v>
+        <v>1067.804108404712</v>
       </c>
       <c r="AB12" t="n">
-        <v>1109.4248630255</v>
+        <v>1461.016689311861</v>
       </c>
       <c r="AC12" t="n">
-        <v>1003.54291118592</v>
+        <v>1321.579307033738</v>
       </c>
       <c r="AD12" t="n">
-        <v>810838.3945038526</v>
+        <v>1067804.108404712</v>
       </c>
       <c r="AE12" t="n">
-        <v>1109424.8630255</v>
+        <v>1461016.689311861</v>
       </c>
       <c r="AF12" t="n">
         <v>3.695293147283342e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>55</v>
+        <v>54.0625</v>
       </c>
       <c r="AH12" t="n">
-        <v>1003542.91118592</v>
+        <v>1321579.307033738</v>
       </c>
     </row>
   </sheetData>
@@ -25158,28 +25158,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>985.7729367709493</v>
+        <v>1305.302175048599</v>
       </c>
       <c r="AB2" t="n">
-        <v>1348.778021322668</v>
+        <v>1785.972021769249</v>
       </c>
       <c r="AC2" t="n">
-        <v>1220.052539989474</v>
+        <v>1615.521358639067</v>
       </c>
       <c r="AD2" t="n">
-        <v>985772.9367709493</v>
+        <v>1305302.175048599</v>
       </c>
       <c r="AE2" t="n">
-        <v>1348778.021322668</v>
+        <v>1785972.021769249</v>
       </c>
       <c r="AF2" t="n">
         <v>3.495150764466338e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>65</v>
+        <v>64.97395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1220052.539989474</v>
+        <v>1615521.358639067</v>
       </c>
     </row>
     <row r="3">
@@ -25264,28 +25264,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>861.3238384835795</v>
+        <v>1133.883586366632</v>
       </c>
       <c r="AB3" t="n">
-        <v>1178.501274739158</v>
+        <v>1551.429546280182</v>
       </c>
       <c r="AC3" t="n">
-        <v>1066.02676711498</v>
+        <v>1403.363287828245</v>
       </c>
       <c r="AD3" t="n">
-        <v>861323.8384835795</v>
+        <v>1133883.586366632</v>
       </c>
       <c r="AE3" t="n">
-        <v>1178501.274739158</v>
+        <v>1551429.546280182</v>
       </c>
       <c r="AF3" t="n">
         <v>3.912670957850919e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>59</v>
+        <v>58.046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1066026.76711498</v>
+        <v>1403363.287828245</v>
       </c>
     </row>
     <row r="4">
@@ -25370,28 +25370,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>809.5370898379546</v>
+        <v>1082.095826691151</v>
       </c>
       <c r="AB4" t="n">
-        <v>1107.644360572108</v>
+        <v>1480.571248777478</v>
       </c>
       <c r="AC4" t="n">
-        <v>1001.932337387729</v>
+        <v>1339.267606788954</v>
       </c>
       <c r="AD4" t="n">
-        <v>809537.0898379546</v>
+        <v>1082095.826691151</v>
       </c>
       <c r="AE4" t="n">
-        <v>1107644.360572108</v>
+        <v>1480571.248777478</v>
       </c>
       <c r="AF4" t="n">
         <v>4.06050816858559e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>56</v>
+        <v>55.9375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1001932.337387729</v>
+        <v>1339267.606788954</v>
       </c>
     </row>
     <row r="5">
@@ -25476,28 +25476,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>785.2114962654845</v>
+        <v>1057.7360676999</v>
       </c>
       <c r="AB5" t="n">
-        <v>1074.361010276807</v>
+        <v>1447.241151848929</v>
       </c>
       <c r="AC5" t="n">
-        <v>971.8255033311357</v>
+        <v>1309.11848753218</v>
       </c>
       <c r="AD5" t="n">
-        <v>785211.4962654845</v>
+        <v>1057736.0676999</v>
       </c>
       <c r="AE5" t="n">
-        <v>1074361.010276807</v>
+        <v>1447241.151848929</v>
       </c>
       <c r="AF5" t="n">
         <v>4.135342579683139e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>55</v>
+        <v>54.921875</v>
       </c>
       <c r="AH5" t="n">
-        <v>971825.5033311357</v>
+        <v>1309118.48753218</v>
       </c>
     </row>
     <row r="6">
@@ -25582,28 +25582,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>774.0770092000332</v>
+        <v>1037.167492876878</v>
       </c>
       <c r="AB6" t="n">
-        <v>1059.126313854956</v>
+        <v>1419.098320354592</v>
       </c>
       <c r="AC6" t="n">
-        <v>958.0447849537554</v>
+        <v>1283.661568376951</v>
       </c>
       <c r="AD6" t="n">
-        <v>774077.0092000333</v>
+        <v>1037167.492876878</v>
       </c>
       <c r="AE6" t="n">
-        <v>1059126.313854956</v>
+        <v>1419098.320354592</v>
       </c>
       <c r="AF6" t="n">
         <v>4.183138916841016e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>55</v>
+        <v>54.296875</v>
       </c>
       <c r="AH6" t="n">
-        <v>958044.7849537554</v>
+        <v>1283661.568376951</v>
       </c>
     </row>
     <row r="7">
@@ -25688,28 +25688,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>766.5295937984215</v>
+        <v>1020.287474944181</v>
       </c>
       <c r="AB7" t="n">
-        <v>1048.799607134003</v>
+        <v>1396.002335125243</v>
       </c>
       <c r="AC7" t="n">
-        <v>948.7036446286263</v>
+        <v>1262.769831562472</v>
       </c>
       <c r="AD7" t="n">
-        <v>766529.5937984216</v>
+        <v>1020287.474944181</v>
       </c>
       <c r="AE7" t="n">
-        <v>1048799.607134003</v>
+        <v>1396002.335125243</v>
       </c>
       <c r="AF7" t="n">
         <v>4.20162947063202e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>55</v>
+        <v>54.0625</v>
       </c>
       <c r="AH7" t="n">
-        <v>948703.6446286263</v>
+        <v>1262769.831562472</v>
       </c>
     </row>
     <row r="8">
@@ -25794,28 +25794,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>756.4716483295625</v>
+        <v>1019.629451814112</v>
       </c>
       <c r="AB8" t="n">
-        <v>1035.037882418272</v>
+        <v>1395.10199884875</v>
       </c>
       <c r="AC8" t="n">
-        <v>936.2553196050629</v>
+        <v>1261.955422116578</v>
       </c>
       <c r="AD8" t="n">
-        <v>756471.6483295625</v>
+        <v>1019629.451814112</v>
       </c>
       <c r="AE8" t="n">
-        <v>1035037.882418272</v>
+        <v>1395101.99884875</v>
       </c>
       <c r="AF8" t="n">
         <v>4.210787527934166e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>54</v>
+        <v>53.93229166666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>936255.3196050629</v>
+        <v>1261955.422116578</v>
       </c>
     </row>
   </sheetData>
@@ -48400,28 +48400,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>877.2223604102231</v>
+        <v>1174.944986937535</v>
       </c>
       <c r="AB2" t="n">
-        <v>1200.254333832478</v>
+        <v>1607.611566042435</v>
       </c>
       <c r="AC2" t="n">
-        <v>1085.703744779043</v>
+        <v>1454.183374476348</v>
       </c>
       <c r="AD2" t="n">
-        <v>877222.3604102231</v>
+        <v>1174944.986937535</v>
       </c>
       <c r="AE2" t="n">
-        <v>1200254.333832478</v>
+        <v>1607611.566042435</v>
       </c>
       <c r="AF2" t="n">
         <v>4.142459790922236e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>62</v>
+        <v>61.58854166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1085703.744779043</v>
+        <v>1454183.374476348</v>
       </c>
     </row>
     <row r="3">
@@ -48506,28 +48506,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>782.6999391661088</v>
+        <v>1052.43734363276</v>
       </c>
       <c r="AB3" t="n">
-        <v>1070.924587051362</v>
+        <v>1439.99120381706</v>
       </c>
       <c r="AC3" t="n">
-        <v>968.717047515277</v>
+        <v>1302.560464365107</v>
       </c>
       <c r="AD3" t="n">
-        <v>782699.9391661088</v>
+        <v>1052437.34363276</v>
       </c>
       <c r="AE3" t="n">
-        <v>1070924.587051362</v>
+        <v>1439991.20381706</v>
       </c>
       <c r="AF3" t="n">
         <v>4.523098667929727e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>57</v>
+        <v>56.40625</v>
       </c>
       <c r="AH3" t="n">
-        <v>968717.0475152771</v>
+        <v>1302560.464365107</v>
       </c>
     </row>
     <row r="4">
@@ -48612,28 +48612,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>742.7505724198904</v>
+        <v>1003.283494695374</v>
       </c>
       <c r="AB4" t="n">
-        <v>1016.264101027512</v>
+        <v>1372.73673918616</v>
       </c>
       <c r="AC4" t="n">
-        <v>919.2732815610693</v>
+        <v>1241.724671446347</v>
       </c>
       <c r="AD4" t="n">
-        <v>742750.5724198904</v>
+        <v>1003283.494695374</v>
       </c>
       <c r="AE4" t="n">
-        <v>1016264.101027512</v>
+        <v>1372736.73918616</v>
       </c>
       <c r="AF4" t="n">
         <v>4.663071121672317e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>55</v>
+        <v>54.71354166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>919273.2815610693</v>
+        <v>1241724.671446346</v>
       </c>
     </row>
     <row r="5">
@@ -48718,28 +48718,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>731.9753386318346</v>
+        <v>983.1691391007424</v>
       </c>
       <c r="AB5" t="n">
-        <v>1001.520950788929</v>
+        <v>1345.215390478844</v>
       </c>
       <c r="AC5" t="n">
-        <v>905.9371968891155</v>
+        <v>1216.829921633201</v>
       </c>
       <c r="AD5" t="n">
-        <v>731975.3386318346</v>
+        <v>983169.1391007424</v>
       </c>
       <c r="AE5" t="n">
-        <v>1001520.950788929</v>
+        <v>1345215.390478845</v>
       </c>
       <c r="AF5" t="n">
         <v>4.713711960430132e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>55</v>
+        <v>54.11458333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>905937.1968891155</v>
+        <v>1216829.921633201</v>
       </c>
     </row>
     <row r="6">
@@ -48824,28 +48824,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>732.5108321717648</v>
+        <v>983.7046326406726</v>
       </c>
       <c r="AB6" t="n">
-        <v>1002.253636674569</v>
+        <v>1345.948076364485</v>
       </c>
       <c r="AC6" t="n">
-        <v>906.5999562621613</v>
+        <v>1217.492681006247</v>
       </c>
       <c r="AD6" t="n">
-        <v>732510.8321717648</v>
+        <v>983704.6326406726</v>
       </c>
       <c r="AE6" t="n">
-        <v>1002253.636674569</v>
+        <v>1345948.076364485</v>
       </c>
       <c r="AF6" t="n">
         <v>4.720764456349983e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>55</v>
+        <v>54.03645833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>906599.9562621613</v>
+        <v>1217492.681006247</v>
       </c>
     </row>
   </sheetData>
@@ -49121,28 +49121,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>695.9786514617573</v>
+        <v>960.2567489299707</v>
       </c>
       <c r="AB2" t="n">
-        <v>952.2686953410708</v>
+        <v>1313.865647423881</v>
       </c>
       <c r="AC2" t="n">
-        <v>861.3855075752267</v>
+        <v>1188.472154055763</v>
       </c>
       <c r="AD2" t="n">
-        <v>695978.6514617573</v>
+        <v>960256.7489299708</v>
       </c>
       <c r="AE2" t="n">
-        <v>952268.6953410709</v>
+        <v>1313865.647423881</v>
       </c>
       <c r="AF2" t="n">
         <v>5.972497601063179e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>861385.5075752267</v>
+        <v>1188472.154055763</v>
       </c>
     </row>
     <row r="3">
@@ -49227,28 +49227,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>675.6163493864281</v>
+        <v>930.8108968212332</v>
       </c>
       <c r="AB3" t="n">
-        <v>924.4080953202383</v>
+        <v>1273.576533509394</v>
       </c>
       <c r="AC3" t="n">
-        <v>836.1838841177844</v>
+        <v>1152.028176627148</v>
       </c>
       <c r="AD3" t="n">
-        <v>675616.349386428</v>
+        <v>930810.8968212332</v>
       </c>
       <c r="AE3" t="n">
-        <v>924408.0953202383</v>
+        <v>1273576.533509394</v>
       </c>
       <c r="AF3" t="n">
         <v>6.123552483776286e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.10416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>836183.8841177843</v>
+        <v>1152028.176627148</v>
       </c>
     </row>
   </sheetData>
@@ -49524,28 +49524,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1340.361447874367</v>
+        <v>1725.042193887931</v>
       </c>
       <c r="AB2" t="n">
-        <v>1833.941665555421</v>
+        <v>2360.278833167947</v>
       </c>
       <c r="AC2" t="n">
-        <v>1658.912846948105</v>
+        <v>2135.017134002546</v>
       </c>
       <c r="AD2" t="n">
-        <v>1340361.447874367</v>
+        <v>1725042.193887931</v>
       </c>
       <c r="AE2" t="n">
-        <v>1833941.665555421</v>
+        <v>2360278.833167947</v>
       </c>
       <c r="AF2" t="n">
         <v>2.386633667648997e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>76</v>
+        <v>75.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1658912.846948105</v>
+        <v>2135017.134002546</v>
       </c>
     </row>
     <row r="3">
@@ -49630,28 +49630,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1072.445654901488</v>
+        <v>1380.198095825953</v>
       </c>
       <c r="AB3" t="n">
-        <v>1467.367457999329</v>
+        <v>1888.447924751653</v>
       </c>
       <c r="AC3" t="n">
-        <v>1327.323967271034</v>
+        <v>1708.217105266664</v>
       </c>
       <c r="AD3" t="n">
-        <v>1072445.654901488</v>
+        <v>1380198.095825953</v>
       </c>
       <c r="AE3" t="n">
-        <v>1467367.457999329</v>
+        <v>1888447.924751653</v>
       </c>
       <c r="AF3" t="n">
         <v>2.865519337234415e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>64</v>
+        <v>63.25520833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1327323.967271034</v>
+        <v>1708217.105266663</v>
       </c>
     </row>
     <row r="4">
@@ -49736,28 +49736,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>992.689443059974</v>
+        <v>1290.854603181145</v>
       </c>
       <c r="AB4" t="n">
-        <v>1358.241490362033</v>
+        <v>1766.204216558313</v>
       </c>
       <c r="AC4" t="n">
-        <v>1228.612828825785</v>
+        <v>1597.640165013174</v>
       </c>
       <c r="AD4" t="n">
-        <v>992689.443059974</v>
+        <v>1290854.603181145</v>
       </c>
       <c r="AE4" t="n">
-        <v>1358241.490362033</v>
+        <v>1766204.216558313</v>
       </c>
       <c r="AF4" t="n">
         <v>3.036723921913986e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>60</v>
+        <v>59.6875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1228612.828825785</v>
+        <v>1597640.165013174</v>
       </c>
     </row>
     <row r="5">
@@ -49842,28 +49842,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>951.576283732217</v>
+        <v>1240.121008661171</v>
       </c>
       <c r="AB5" t="n">
-        <v>1301.988651985217</v>
+        <v>1696.788274327859</v>
       </c>
       <c r="AC5" t="n">
-        <v>1177.728682392298</v>
+        <v>1534.849182883308</v>
       </c>
       <c r="AD5" t="n">
-        <v>951576.283732217</v>
+        <v>1240121.008661171</v>
       </c>
       <c r="AE5" t="n">
-        <v>1301988.651985217</v>
+        <v>1696788.274327859</v>
       </c>
       <c r="AF5" t="n">
         <v>3.131512801724382e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>58</v>
+        <v>57.86458333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1177728.682392298</v>
+        <v>1534849.182883308</v>
       </c>
     </row>
     <row r="6">
@@ -49948,28 +49948,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>927.6955896191355</v>
+        <v>1216.206149129309</v>
       </c>
       <c r="AB6" t="n">
-        <v>1269.31403275783</v>
+        <v>1664.066908467224</v>
       </c>
       <c r="AC6" t="n">
-        <v>1148.172482964856</v>
+        <v>1505.250698255686</v>
       </c>
       <c r="AD6" t="n">
-        <v>927695.5896191355</v>
+        <v>1216206.149129309</v>
       </c>
       <c r="AE6" t="n">
-        <v>1269314.03275783</v>
+        <v>1664066.908467224</v>
       </c>
       <c r="AF6" t="n">
         <v>3.188720187336824e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>57</v>
+        <v>56.84895833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1148172.482964856</v>
+        <v>1505250.698255686</v>
       </c>
     </row>
     <row r="7">
@@ -50054,28 +50054,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>918.4700494017802</v>
+        <v>1197.327019330813</v>
       </c>
       <c r="AB7" t="n">
-        <v>1256.691241630335</v>
+        <v>1638.235650188497</v>
       </c>
       <c r="AC7" t="n">
-        <v>1136.75439330637</v>
+        <v>1481.884739012683</v>
       </c>
       <c r="AD7" t="n">
-        <v>918470.0494017802</v>
+        <v>1197327.019330813</v>
       </c>
       <c r="AE7" t="n">
-        <v>1256691.241630335</v>
+        <v>1638235.650188498</v>
       </c>
       <c r="AF7" t="n">
         <v>3.223865843947874e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>57</v>
+        <v>56.22395833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1136754.39330637</v>
+        <v>1481884.739012683</v>
       </c>
     </row>
     <row r="8">
@@ -50160,28 +50160,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>899.2610443011233</v>
+        <v>1178.18533403786</v>
       </c>
       <c r="AB8" t="n">
-        <v>1230.408633410121</v>
+        <v>1612.045151899124</v>
       </c>
       <c r="AC8" t="n">
-        <v>1112.980160326821</v>
+        <v>1458.193825121452</v>
       </c>
       <c r="AD8" t="n">
-        <v>899261.0443011234</v>
+        <v>1178185.33403786</v>
       </c>
       <c r="AE8" t="n">
-        <v>1230408.633410121</v>
+        <v>1612045.151899124</v>
       </c>
       <c r="AF8" t="n">
         <v>3.254487802183245e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>56</v>
+        <v>55.67708333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1112980.160326821</v>
+        <v>1458193.825121452</v>
       </c>
     </row>
     <row r="9">
@@ -50266,28 +50266,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>892.8549227225517</v>
+        <v>1162.125622878148</v>
       </c>
       <c r="AB9" t="n">
-        <v>1221.643495248181</v>
+        <v>1590.071546585953</v>
       </c>
       <c r="AC9" t="n">
-        <v>1105.051554649108</v>
+        <v>1438.317349859221</v>
       </c>
       <c r="AD9" t="n">
-        <v>892854.9227225517</v>
+        <v>1162125.622878148</v>
       </c>
       <c r="AE9" t="n">
-        <v>1221643.495248181</v>
+        <v>1590071.546585953</v>
       </c>
       <c r="AF9" t="n">
         <v>3.273696121439977e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>56</v>
+        <v>55.36458333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1105051.554649108</v>
+        <v>1438317.349859221</v>
       </c>
     </row>
     <row r="10">
@@ -50372,28 +50372,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>886.5544766807675</v>
+        <v>1155.825176836364</v>
       </c>
       <c r="AB10" t="n">
-        <v>1213.02294701775</v>
+        <v>1581.450998355522</v>
       </c>
       <c r="AC10" t="n">
-        <v>1097.253739442774</v>
+        <v>1430.519534652887</v>
       </c>
       <c r="AD10" t="n">
-        <v>886554.4766807675</v>
+        <v>1155825.176836364</v>
       </c>
       <c r="AE10" t="n">
-        <v>1213022.94701775</v>
+        <v>1581450.998355522</v>
       </c>
       <c r="AF10" t="n">
         <v>3.291930105661948e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>56</v>
+        <v>55.05208333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1097253.739442774</v>
+        <v>1430519.534652887</v>
       </c>
     </row>
     <row r="11">
@@ -50478,28 +50478,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>870.1884024967608</v>
+        <v>1149.078526814717</v>
       </c>
       <c r="AB11" t="n">
-        <v>1190.630162298957</v>
+        <v>1572.219934154713</v>
       </c>
       <c r="AC11" t="n">
-        <v>1076.998090669071</v>
+        <v>1422.169470263523</v>
       </c>
       <c r="AD11" t="n">
-        <v>870188.4024967608</v>
+        <v>1149078.526814717</v>
       </c>
       <c r="AE11" t="n">
-        <v>1190630.162298956</v>
+        <v>1572219.934154713</v>
       </c>
       <c r="AF11" t="n">
         <v>3.306127559025619e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>55</v>
+        <v>54.81770833333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1076998.090669071</v>
+        <v>1422169.470263523</v>
       </c>
     </row>
     <row r="12">
@@ -50584,28 +50584,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>866.7244043671475</v>
+        <v>1136.062424330448</v>
       </c>
       <c r="AB12" t="n">
-        <v>1185.890567237208</v>
+        <v>1554.410728505821</v>
       </c>
       <c r="AC12" t="n">
-        <v>1072.710835907952</v>
+        <v>1406.059950206385</v>
       </c>
       <c r="AD12" t="n">
-        <v>866724.4043671475</v>
+        <v>1136062.424330448</v>
       </c>
       <c r="AE12" t="n">
-        <v>1185890.567237208</v>
+        <v>1554410.728505821</v>
       </c>
       <c r="AF12" t="n">
         <v>3.312112759953442e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>55</v>
+        <v>54.71354166666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>1072710.835907952</v>
+        <v>1406059.950206385</v>
       </c>
     </row>
     <row r="13">
@@ -50690,28 +50690,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>860.6659812957809</v>
+        <v>1130.004001259082</v>
       </c>
       <c r="AB13" t="n">
-        <v>1177.601165512202</v>
+        <v>1546.121326780815</v>
       </c>
       <c r="AC13" t="n">
-        <v>1065.212563049332</v>
+        <v>1398.561677347765</v>
       </c>
       <c r="AD13" t="n">
-        <v>860665.9812957809</v>
+        <v>1130004.001259082</v>
       </c>
       <c r="AE13" t="n">
-        <v>1177601.165512202</v>
+        <v>1546121.326780815</v>
       </c>
       <c r="AF13" t="n">
         <v>3.320812179906672e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>55</v>
+        <v>54.58333333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>1065212.563049332</v>
+        <v>1398561.677347765</v>
       </c>
     </row>
     <row r="14">
@@ -50796,28 +50796,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>855.5428557283429</v>
+        <v>1124.779390465158</v>
       </c>
       <c r="AB14" t="n">
-        <v>1170.591479094484</v>
+        <v>1538.972783799009</v>
       </c>
       <c r="AC14" t="n">
-        <v>1058.871871265166</v>
+        <v>1392.095381275099</v>
       </c>
       <c r="AD14" t="n">
-        <v>855542.8557283429</v>
+        <v>1124779.390465158</v>
       </c>
       <c r="AE14" t="n">
-        <v>1170591.479094484</v>
+        <v>1538972.783799009</v>
       </c>
       <c r="AF14" t="n">
         <v>3.32805009730776e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>55</v>
+        <v>54.453125</v>
       </c>
       <c r="AH14" t="n">
-        <v>1058871.871265166</v>
+        <v>1392095.381275099</v>
       </c>
     </row>
     <row r="15">
@@ -50902,28 +50902,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>850.9965266502161</v>
+        <v>1120.233061387031</v>
       </c>
       <c r="AB15" t="n">
-        <v>1164.370991079908</v>
+        <v>1532.752295784432</v>
       </c>
       <c r="AC15" t="n">
-        <v>1053.24505789619</v>
+        <v>1386.468567906124</v>
       </c>
       <c r="AD15" t="n">
-        <v>850996.5266502161</v>
+        <v>1120233.061387031</v>
       </c>
       <c r="AE15" t="n">
-        <v>1164370.991079908</v>
+        <v>1532752.295784432</v>
       </c>
       <c r="AF15" t="n">
         <v>3.337097494059119e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>55</v>
+        <v>54.32291666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>1053245.05789619</v>
+        <v>1386468.567906124</v>
       </c>
     </row>
     <row r="16">
@@ -51008,28 +51008,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>851.8748960119308</v>
+        <v>1121.111430748746</v>
       </c>
       <c r="AB16" t="n">
-        <v>1165.572814791527</v>
+        <v>1533.954119496052</v>
       </c>
       <c r="AC16" t="n">
-        <v>1054.332181239543</v>
+        <v>1387.555691249476</v>
       </c>
       <c r="AD16" t="n">
-        <v>851874.8960119308</v>
+        <v>1121111.430748746</v>
       </c>
       <c r="AE16" t="n">
-        <v>1165572.814791527</v>
+        <v>1533954.119496052</v>
       </c>
       <c r="AF16" t="n">
         <v>3.336331945103235e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>55</v>
+        <v>54.32291666666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>1054332.181239543</v>
+        <v>1387555.691249476</v>
       </c>
     </row>
   </sheetData>
@@ -51305,28 +51305,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1623.258878423129</v>
+        <v>2051.554849057023</v>
       </c>
       <c r="AB2" t="n">
-        <v>2221.01441058604</v>
+        <v>2807.02785269201</v>
       </c>
       <c r="AC2" t="n">
-        <v>2009.043912453011</v>
+        <v>2539.129054119419</v>
       </c>
       <c r="AD2" t="n">
-        <v>1623258.878423129</v>
+        <v>2051554.849057022</v>
       </c>
       <c r="AE2" t="n">
-        <v>2221014.41058604</v>
+        <v>2807027.85269201</v>
       </c>
       <c r="AF2" t="n">
         <v>1.937458898290492e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>85</v>
+        <v>84.53125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2009043.912453011</v>
+        <v>2539129.054119419</v>
       </c>
     </row>
     <row r="3">
@@ -51411,28 +51411,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1222.637671689513</v>
+        <v>1553.571365423665</v>
       </c>
       <c r="AB3" t="n">
-        <v>1672.866801372846</v>
+        <v>2125.66488090408</v>
       </c>
       <c r="AC3" t="n">
-        <v>1513.210741733122</v>
+        <v>1922.794408059992</v>
       </c>
       <c r="AD3" t="n">
-        <v>1222637.671689513</v>
+        <v>1553571.365423665</v>
       </c>
       <c r="AE3" t="n">
-        <v>1672866.801372846</v>
+        <v>2125664.88090408</v>
       </c>
       <c r="AF3" t="n">
         <v>2.438409840670382e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>68</v>
+        <v>67.16145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1513210.741733122</v>
+        <v>1922794.408059992</v>
       </c>
     </row>
     <row r="4">
@@ -51517,28 +51517,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1113.771450413818</v>
+        <v>1425.198321143269</v>
       </c>
       <c r="AB4" t="n">
-        <v>1523.911234584724</v>
+        <v>1950.019218300633</v>
       </c>
       <c r="AC4" t="n">
-        <v>1378.471285178808</v>
+        <v>1763.912120975182</v>
       </c>
       <c r="AD4" t="n">
-        <v>1113771.450413818</v>
+        <v>1425198.321143269</v>
       </c>
       <c r="AE4" t="n">
-        <v>1523911.234584724</v>
+        <v>1950019.218300633</v>
       </c>
       <c r="AF4" t="n">
         <v>2.626565153198707e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>63</v>
+        <v>62.34375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1378471.285178808</v>
+        <v>1763912.120975182</v>
       </c>
     </row>
     <row r="5">
@@ -51623,28 +51623,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1066.446612403857</v>
+        <v>1368.137154340349</v>
       </c>
       <c r="AB5" t="n">
-        <v>1459.159303394994</v>
+        <v>1871.945612519864</v>
       </c>
       <c r="AC5" t="n">
-        <v>1319.89918742192</v>
+        <v>1693.289750553136</v>
       </c>
       <c r="AD5" t="n">
-        <v>1066446.612403857</v>
+        <v>1368137.154340349</v>
       </c>
       <c r="AE5" t="n">
-        <v>1459159.303394994</v>
+        <v>1871945.612519864</v>
       </c>
       <c r="AF5" t="n">
         <v>2.724793294298053e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>61</v>
+        <v>60.10416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1319899.18742192</v>
+        <v>1693289.750553136</v>
       </c>
     </row>
     <row r="6">
@@ -51729,28 +51729,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1028.8189493711</v>
+        <v>1330.542645696515</v>
       </c>
       <c r="AB6" t="n">
-        <v>1407.67547481824</v>
+        <v>1820.507147240705</v>
       </c>
       <c r="AC6" t="n">
-        <v>1273.328903186524</v>
+        <v>1646.760500205879</v>
       </c>
       <c r="AD6" t="n">
-        <v>1028818.9493711</v>
+        <v>1330542.645696515</v>
       </c>
       <c r="AE6" t="n">
-        <v>1407675.47481824</v>
+        <v>1820507.147240705</v>
       </c>
       <c r="AF6" t="n">
         <v>2.787239225227407e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>59</v>
+        <v>58.75</v>
       </c>
       <c r="AH6" t="n">
-        <v>1273328.903186525</v>
+        <v>1646760.50020588</v>
       </c>
     </row>
     <row r="7">
@@ -51835,28 +51835,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1005.715463815144</v>
+        <v>1297.736996766381</v>
       </c>
       <c r="AB7" t="n">
-        <v>1376.064266626735</v>
+        <v>1775.621011091408</v>
       </c>
       <c r="AC7" t="n">
-        <v>1244.734624338207</v>
+        <v>1606.158233892584</v>
       </c>
       <c r="AD7" t="n">
-        <v>1005715.463815144</v>
+        <v>1297736.996766381</v>
       </c>
       <c r="AE7" t="n">
-        <v>1376064.266626735</v>
+        <v>1775621.011091408</v>
       </c>
       <c r="AF7" t="n">
         <v>2.835347117635217e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>58</v>
+        <v>57.76041666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1244734.624338207</v>
+        <v>1606158.233892584</v>
       </c>
     </row>
     <row r="8">
@@ -51941,28 +51941,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>996.8732646993593</v>
+        <v>1279.125314468712</v>
       </c>
       <c r="AB8" t="n">
-        <v>1363.965979706224</v>
+        <v>1750.155686282264</v>
       </c>
       <c r="AC8" t="n">
-        <v>1233.790980941337</v>
+        <v>1583.123283942417</v>
       </c>
       <c r="AD8" t="n">
-        <v>996873.2646993593</v>
+        <v>1279125.314468712</v>
       </c>
       <c r="AE8" t="n">
-        <v>1363965.979706224</v>
+        <v>1750155.686282264</v>
       </c>
       <c r="AF8" t="n">
         <v>2.865218031221765e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>58</v>
+        <v>57.16145833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1233790.980941337</v>
+        <v>1583123.283942417</v>
       </c>
     </row>
     <row r="9">
@@ -52047,28 +52047,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>979.8058479372547</v>
+        <v>1262.125217514312</v>
       </c>
       <c r="AB9" t="n">
-        <v>1340.613587131026</v>
+        <v>1726.895403637908</v>
       </c>
       <c r="AC9" t="n">
-        <v>1212.667307938228</v>
+        <v>1562.082930027627</v>
       </c>
       <c r="AD9" t="n">
-        <v>979805.8479372547</v>
+        <v>1262125.217514312</v>
       </c>
       <c r="AE9" t="n">
-        <v>1340613.587131026</v>
+        <v>1726895.403637908</v>
       </c>
       <c r="AF9" t="n">
         <v>2.886347772200883e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>57</v>
+        <v>56.74479166666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1212667.307938228</v>
+        <v>1562082.930027627</v>
       </c>
     </row>
     <row r="10">
@@ -52153,28 +52153,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>972.428621935386</v>
+        <v>1254.646506285958</v>
       </c>
       <c r="AB10" t="n">
-        <v>1330.519741055029</v>
+        <v>1716.662700997821</v>
       </c>
       <c r="AC10" t="n">
-        <v>1203.536804364921</v>
+        <v>1552.826822165821</v>
       </c>
       <c r="AD10" t="n">
-        <v>972428.621935386</v>
+        <v>1254646.506285958</v>
       </c>
       <c r="AE10" t="n">
-        <v>1330519.741055029</v>
+        <v>1716662.700997821</v>
       </c>
       <c r="AF10" t="n">
         <v>2.909175438794392e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>57</v>
+        <v>56.30208333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1203536.804364921</v>
+        <v>1552826.822165821</v>
       </c>
     </row>
     <row r="11">
@@ -52259,28 +52259,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>965.825005069363</v>
+        <v>1238.374891464537</v>
       </c>
       <c r="AB11" t="n">
-        <v>1321.484381127921</v>
+        <v>1694.39915974617</v>
       </c>
       <c r="AC11" t="n">
-        <v>1195.363766508049</v>
+        <v>1532.688082044151</v>
       </c>
       <c r="AD11" t="n">
-        <v>965825.0050693629</v>
+        <v>1238374.891464537</v>
       </c>
       <c r="AE11" t="n">
-        <v>1321484.381127921</v>
+        <v>1694399.15974617</v>
       </c>
       <c r="AF11" t="n">
         <v>2.923702135717535e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>57</v>
+        <v>56.015625</v>
       </c>
       <c r="AH11" t="n">
-        <v>1195363.766508049</v>
+        <v>1532688.082044151</v>
       </c>
     </row>
     <row r="12">
@@ -52365,28 +52365,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>953.1106232378678</v>
+        <v>1235.395827396144</v>
       </c>
       <c r="AB12" t="n">
-        <v>1304.08800298713</v>
+        <v>1690.323072860764</v>
       </c>
       <c r="AC12" t="n">
-        <v>1179.627674281046</v>
+        <v>1529.001011170265</v>
       </c>
       <c r="AD12" t="n">
-        <v>953110.6232378678</v>
+        <v>1235395.827396144</v>
       </c>
       <c r="AE12" t="n">
-        <v>1304088.00298713</v>
+        <v>1690323.072860764</v>
       </c>
       <c r="AF12" t="n">
         <v>2.931500016316971e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>56</v>
+        <v>55.859375</v>
       </c>
       <c r="AH12" t="n">
-        <v>1179627.674281046</v>
+        <v>1529001.011170265</v>
       </c>
     </row>
     <row r="13">
@@ -52471,28 +52471,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>946.6864336931864</v>
+        <v>1228.971637851463</v>
       </c>
       <c r="AB13" t="n">
-        <v>1295.298143436857</v>
+        <v>1681.533213310491</v>
       </c>
       <c r="AC13" t="n">
-        <v>1171.676706589605</v>
+        <v>1521.050043478824</v>
       </c>
       <c r="AD13" t="n">
-        <v>946686.4336931864</v>
+        <v>1228971.637851463</v>
       </c>
       <c r="AE13" t="n">
-        <v>1295298.143436857</v>
+        <v>1681533.213310491</v>
       </c>
       <c r="AF13" t="n">
         <v>2.946970005248111e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>56</v>
+        <v>55.57291666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>1171676.706589605</v>
+        <v>1521050.043478824</v>
       </c>
     </row>
     <row r="14">
@@ -52577,28 +52577,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>943.1101297340284</v>
+        <v>1225.293848665819</v>
       </c>
       <c r="AB14" t="n">
-        <v>1290.404886584542</v>
+        <v>1676.501099894086</v>
       </c>
       <c r="AC14" t="n">
-        <v>1167.250455303546</v>
+        <v>1516.498187904266</v>
       </c>
       <c r="AD14" t="n">
-        <v>943110.1297340284</v>
+        <v>1225293.848665819</v>
       </c>
       <c r="AE14" t="n">
-        <v>1290404.886584542</v>
+        <v>1676501.099894086</v>
       </c>
       <c r="AF14" t="n">
         <v>2.954453455178214e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>56</v>
+        <v>55.44270833333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>1167250.455303546</v>
+        <v>1516498.187904266</v>
       </c>
     </row>
     <row r="15">
@@ -52683,28 +52683,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>937.9677014420519</v>
+        <v>1210.483422418444</v>
       </c>
       <c r="AB15" t="n">
-        <v>1283.368789327535</v>
+        <v>1656.236821312536</v>
       </c>
       <c r="AC15" t="n">
-        <v>1160.885873293523</v>
+        <v>1498.167903629445</v>
       </c>
       <c r="AD15" t="n">
-        <v>937967.7014420519</v>
+        <v>1210483.422418444</v>
       </c>
       <c r="AE15" t="n">
-        <v>1283368.789327535</v>
+        <v>1656236.821312536</v>
       </c>
       <c r="AF15" t="n">
         <v>2.96401214752591e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>56</v>
+        <v>55.26041666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>1160885.873293523</v>
+        <v>1498167.903629445</v>
       </c>
     </row>
     <row r="16">
@@ -52789,28 +52789,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>932.9020704125239</v>
+        <v>1205.417791388917</v>
       </c>
       <c r="AB16" t="n">
-        <v>1276.437769473066</v>
+        <v>1649.305801458067</v>
       </c>
       <c r="AC16" t="n">
-        <v>1154.616340246217</v>
+        <v>1491.898370582139</v>
       </c>
       <c r="AD16" t="n">
-        <v>932902.0704125239</v>
+        <v>1205417.791388917</v>
       </c>
       <c r="AE16" t="n">
-        <v>1276437.769473066</v>
+        <v>1649305.801458067</v>
       </c>
       <c r="AF16" t="n">
         <v>2.972124458794678e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>56</v>
+        <v>55.10416666666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>1154616.340246217</v>
+        <v>1491898.370582139</v>
       </c>
     </row>
     <row r="17">
@@ -52895,28 +52895,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>930.2692584912244</v>
+        <v>1202.784979467617</v>
       </c>
       <c r="AB17" t="n">
-        <v>1272.835440050879</v>
+        <v>1645.70347203588</v>
       </c>
       <c r="AC17" t="n">
-        <v>1151.357812088183</v>
+        <v>1488.639842424105</v>
       </c>
       <c r="AD17" t="n">
-        <v>930269.2584912244</v>
+        <v>1202784.979467617</v>
       </c>
       <c r="AE17" t="n">
-        <v>1272835.440050879</v>
+        <v>1645703.47203588</v>
       </c>
       <c r="AF17" t="n">
         <v>2.97136982518828e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>56</v>
+        <v>55.10416666666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>1151357.812088183</v>
+        <v>1488639.842424105</v>
       </c>
     </row>
     <row r="18">
@@ -53001,19 +53001,19 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>918.2778049424437</v>
+        <v>1200.528843681939</v>
       </c>
       <c r="AB18" t="n">
-        <v>1256.428204279844</v>
+        <v>1642.61652752023</v>
       </c>
       <c r="AC18" t="n">
-        <v>1136.516459871435</v>
+        <v>1485.847511560474</v>
       </c>
       <c r="AD18" t="n">
-        <v>918277.8049424437</v>
+        <v>1200528.843681939</v>
       </c>
       <c r="AE18" t="n">
-        <v>1256428.204279844</v>
+        <v>1642616.52752023</v>
       </c>
       <c r="AF18" t="n">
         <v>2.97822441377972e-06</v>
@@ -53022,7 +53022,7 @@
         <v>55</v>
       </c>
       <c r="AH18" t="n">
-        <v>1136516.459871435</v>
+        <v>1485847.511560474</v>
       </c>
     </row>
     <row r="19">
@@ -53107,28 +53107,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>911.1989431000408</v>
+        <v>1193.449981839536</v>
       </c>
       <c r="AB19" t="n">
-        <v>1246.742593209724</v>
+        <v>1632.93091645011</v>
       </c>
       <c r="AC19" t="n">
-        <v>1127.755229928007</v>
+        <v>1477.086281617046</v>
       </c>
       <c r="AD19" t="n">
-        <v>911198.9431000408</v>
+        <v>1193449.981839536</v>
       </c>
       <c r="AE19" t="n">
-        <v>1246742.593209724</v>
+        <v>1632930.91645011</v>
       </c>
       <c r="AF19" t="n">
         <v>2.98683981411942e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>55</v>
+        <v>54.81770833333334</v>
       </c>
       <c r="AH19" t="n">
-        <v>1127755.229928007</v>
+        <v>1477086.281617046</v>
       </c>
     </row>
     <row r="20">
@@ -53213,28 +53213,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>910.5950059957037</v>
+        <v>1192.846044735199</v>
       </c>
       <c r="AB20" t="n">
-        <v>1245.916259819746</v>
+        <v>1632.104583060132</v>
       </c>
       <c r="AC20" t="n">
-        <v>1127.007760637002</v>
+        <v>1476.338812326041</v>
       </c>
       <c r="AD20" t="n">
-        <v>910595.0059957036</v>
+        <v>1192846.044735199</v>
       </c>
       <c r="AE20" t="n">
-        <v>1245916.259819746</v>
+        <v>1632104.583060132</v>
       </c>
       <c r="AF20" t="n">
         <v>2.987091358654885e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>55</v>
+        <v>54.81770833333334</v>
       </c>
       <c r="AH20" t="n">
-        <v>1127007.760637002</v>
+        <v>1476338.812326041</v>
       </c>
     </row>
     <row r="21">
@@ -53319,28 +53319,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>907.0192308841845</v>
+        <v>1189.27026962368</v>
       </c>
       <c r="AB21" t="n">
-        <v>1241.023726560101</v>
+        <v>1627.212049800487</v>
       </c>
       <c r="AC21" t="n">
-        <v>1122.582163884944</v>
+        <v>1471.913215573983</v>
       </c>
       <c r="AD21" t="n">
-        <v>907019.2308841845</v>
+        <v>1189270.26962368</v>
       </c>
       <c r="AE21" t="n">
-        <v>1241023.726560101</v>
+        <v>1627212.049800487</v>
       </c>
       <c r="AF21" t="n">
         <v>2.984513027166362e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>55</v>
+        <v>54.86979166666666</v>
       </c>
       <c r="AH21" t="n">
-        <v>1122582.163884944</v>
+        <v>1471913.215573983</v>
       </c>
     </row>
     <row r="22">
@@ -53425,28 +53425,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>905.6089215811097</v>
+        <v>1178.191962365207</v>
       </c>
       <c r="AB22" t="n">
-        <v>1239.094079153179</v>
+        <v>1612.054221069021</v>
       </c>
       <c r="AC22" t="n">
-        <v>1120.836679318262</v>
+        <v>1458.202028742503</v>
       </c>
       <c r="AD22" t="n">
-        <v>905608.9215811098</v>
+        <v>1178191.962365207</v>
       </c>
       <c r="AE22" t="n">
-        <v>1239094.079153179</v>
+        <v>1612054.221069021</v>
       </c>
       <c r="AF22" t="n">
         <v>2.994008833380191e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>55</v>
+        <v>54.6875</v>
       </c>
       <c r="AH22" t="n">
-        <v>1120836.679318262</v>
+        <v>1458202.028742503</v>
       </c>
     </row>
     <row r="23">
@@ -53531,28 +53531,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>906.6267047442211</v>
+        <v>1179.209745528318</v>
       </c>
       <c r="AB23" t="n">
-        <v>1240.486654978372</v>
+        <v>1613.446796894215</v>
       </c>
       <c r="AC23" t="n">
-        <v>1122.096349661191</v>
+        <v>1459.461699085432</v>
       </c>
       <c r="AD23" t="n">
-        <v>906626.7047442211</v>
+        <v>1179209.745528318</v>
       </c>
       <c r="AE23" t="n">
-        <v>1240486.654978372</v>
+        <v>1613446.796894215</v>
       </c>
       <c r="AF23" t="n">
         <v>2.993254199773794e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>55</v>
+        <v>54.71354166666666</v>
       </c>
       <c r="AH23" t="n">
-        <v>1122096.349661191</v>
+        <v>1459461.699085432</v>
       </c>
     </row>
     <row r="24">
@@ -53637,28 +53637,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>907.5560004239338</v>
+        <v>1180.139041208031</v>
       </c>
       <c r="AB24" t="n">
-        <v>1241.758158324987</v>
+        <v>1614.71830024083</v>
       </c>
       <c r="AC24" t="n">
-        <v>1123.246502512971</v>
+        <v>1460.611851937212</v>
       </c>
       <c r="AD24" t="n">
-        <v>907556.0004239338</v>
+        <v>1180139.041208031</v>
       </c>
       <c r="AE24" t="n">
-        <v>1241758.158324987</v>
+        <v>1614718.30024083</v>
       </c>
       <c r="AF24" t="n">
         <v>2.993883061112458e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>55</v>
+        <v>54.6875</v>
       </c>
       <c r="AH24" t="n">
-        <v>1123246.502512971</v>
+        <v>1460611.851937212</v>
       </c>
     </row>
   </sheetData>
@@ -53934,28 +53934,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>651.321061839051</v>
+        <v>913.1473077946475</v>
       </c>
       <c r="AB2" t="n">
-        <v>891.1662110654768</v>
+        <v>1249.40843174067</v>
       </c>
       <c r="AC2" t="n">
-        <v>806.1145586410197</v>
+        <v>1130.166644571087</v>
       </c>
       <c r="AD2" t="n">
-        <v>651321.0618390511</v>
+        <v>913147.3077946475</v>
       </c>
       <c r="AE2" t="n">
-        <v>891166.2110654768</v>
+        <v>1249408.43174067</v>
       </c>
       <c r="AF2" t="n">
         <v>7.013436265920614e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>806114.5586410197</v>
+        <v>1130166.644571087</v>
       </c>
     </row>
   </sheetData>
@@ -54231,28 +54231,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1042.909580370849</v>
+        <v>1363.941082209562</v>
       </c>
       <c r="AB2" t="n">
-        <v>1426.954897786865</v>
+        <v>1866.204361512885</v>
       </c>
       <c r="AC2" t="n">
-        <v>1290.768325085863</v>
+        <v>1688.096436484366</v>
       </c>
       <c r="AD2" t="n">
-        <v>1042909.580370849</v>
+        <v>1363941.082209562</v>
       </c>
       <c r="AE2" t="n">
-        <v>1426954.897786865</v>
+        <v>1866204.361512885</v>
       </c>
       <c r="AF2" t="n">
         <v>3.253965289440494e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>67</v>
+        <v>66.5625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1290768.325085863</v>
+        <v>1688096.436484366</v>
       </c>
     </row>
     <row r="3">
@@ -54337,28 +54337,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>888.9731708070593</v>
+        <v>1181.607018226667</v>
       </c>
       <c r="AB3" t="n">
-        <v>1216.332311026596</v>
+        <v>1616.726851160303</v>
       </c>
       <c r="AC3" t="n">
-        <v>1100.247262395337</v>
+        <v>1462.42870957595</v>
       </c>
       <c r="AD3" t="n">
-        <v>888973.1708070593</v>
+        <v>1181607.018226667</v>
       </c>
       <c r="AE3" t="n">
-        <v>1216332.311026596</v>
+        <v>1616726.851160303</v>
       </c>
       <c r="AF3" t="n">
         <v>3.681223416165331e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>59</v>
+        <v>58.828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1100247.262395337</v>
+        <v>1462428.70957595</v>
       </c>
     </row>
     <row r="4">
@@ -54443,28 +54443,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>844.8551070575126</v>
+        <v>1118.671069593653</v>
       </c>
       <c r="AB4" t="n">
-        <v>1155.96802985286</v>
+        <v>1530.615109702518</v>
       </c>
       <c r="AC4" t="n">
-        <v>1045.644063495022</v>
+        <v>1384.535351864307</v>
       </c>
       <c r="AD4" t="n">
-        <v>844855.1070575125</v>
+        <v>1118671.069593653</v>
       </c>
       <c r="AE4" t="n">
-        <v>1155968.02985286</v>
+        <v>1530615.109702518</v>
       </c>
       <c r="AF4" t="n">
         <v>3.830185710298908e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>57</v>
+        <v>56.5625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1045644.063495022</v>
+        <v>1384535.351864307</v>
       </c>
     </row>
     <row r="5">
@@ -54549,28 +54549,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>821.4078907940984</v>
+        <v>1095.189687911458</v>
       </c>
       <c r="AB5" t="n">
-        <v>1123.886514143081</v>
+        <v>1498.486847359491</v>
       </c>
       <c r="AC5" t="n">
-        <v>1016.624362617894</v>
+        <v>1355.473365786999</v>
       </c>
       <c r="AD5" t="n">
-        <v>821407.8907940984</v>
+        <v>1095189.687911458</v>
       </c>
       <c r="AE5" t="n">
-        <v>1123886.514143081</v>
+        <v>1498486.847359491</v>
       </c>
       <c r="AF5" t="n">
         <v>3.901132017890165e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>56</v>
+        <v>55.52083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1016624.362617894</v>
+        <v>1355473.365786999</v>
       </c>
     </row>
     <row r="6">
@@ -54655,28 +54655,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>799.9385791471482</v>
+        <v>1064.311433822774</v>
       </c>
       <c r="AB6" t="n">
-        <v>1094.511254788541</v>
+        <v>1456.237857862926</v>
       </c>
       <c r="AC6" t="n">
-        <v>990.0526367877163</v>
+        <v>1317.256560551158</v>
       </c>
       <c r="AD6" t="n">
-        <v>799938.5791471482</v>
+        <v>1064311.433822774</v>
       </c>
       <c r="AE6" t="n">
-        <v>1094511.254788541</v>
+        <v>1456237.857862926</v>
       </c>
       <c r="AF6" t="n">
         <v>3.955610132160121e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>55</v>
+        <v>54.765625</v>
       </c>
       <c r="AH6" t="n">
-        <v>990052.6367877163</v>
+        <v>1317256.560551158</v>
       </c>
     </row>
     <row r="7">
@@ -54761,28 +54761,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>789.2315258009593</v>
+        <v>1053.5028952501</v>
       </c>
       <c r="AB7" t="n">
-        <v>1079.86139203843</v>
+        <v>1441.449138548725</v>
       </c>
       <c r="AC7" t="n">
-        <v>976.8009363772637</v>
+        <v>1303.879255852206</v>
       </c>
       <c r="AD7" t="n">
-        <v>789231.5258009593</v>
+        <v>1053502.8952501</v>
       </c>
       <c r="AE7" t="n">
-        <v>1079861.39203843</v>
+        <v>1441449.138548725</v>
       </c>
       <c r="AF7" t="n">
         <v>3.988962382270432e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>55</v>
+        <v>54.296875</v>
       </c>
       <c r="AH7" t="n">
-        <v>976800.9363772637</v>
+        <v>1303879.255852206</v>
       </c>
     </row>
     <row r="8">
@@ -54867,28 +54867,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>781.3241371629045</v>
+        <v>1036.220729589093</v>
       </c>
       <c r="AB8" t="n">
-        <v>1069.042154054477</v>
+        <v>1417.802917055996</v>
       </c>
       <c r="AC8" t="n">
-        <v>967.0142712816037</v>
+        <v>1282.489796551062</v>
       </c>
       <c r="AD8" t="n">
-        <v>781324.1371629046</v>
+        <v>1036220.729589093</v>
       </c>
       <c r="AE8" t="n">
-        <v>1069042.154054477</v>
+        <v>1417802.917055995</v>
       </c>
       <c r="AF8" t="n">
         <v>4.009090174107575e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>55</v>
+        <v>54.03645833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>967014.2712816037</v>
+        <v>1282489.796551062</v>
       </c>
     </row>
     <row r="9">
@@ -54973,28 +54973,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>781.7119632447669</v>
+        <v>1036.608555670955</v>
       </c>
       <c r="AB9" t="n">
-        <v>1069.57279480936</v>
+        <v>1418.333557810879</v>
       </c>
       <c r="AC9" t="n">
-        <v>967.4942684275999</v>
+        <v>1282.969793697058</v>
       </c>
       <c r="AD9" t="n">
-        <v>781711.9632447669</v>
+        <v>1036608.555670955</v>
       </c>
       <c r="AE9" t="n">
-        <v>1069572.79480936</v>
+        <v>1418333.557810879</v>
       </c>
       <c r="AF9" t="n">
         <v>4.008674310639866e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>55</v>
+        <v>54.03645833333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>967494.2684275999</v>
+        <v>1282969.793697058</v>
       </c>
     </row>
   </sheetData>
@@ -55270,28 +55270,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1224.29407753822</v>
+        <v>1577.691501010475</v>
       </c>
       <c r="AB2" t="n">
-        <v>1675.133168930515</v>
+        <v>2158.667114519234</v>
       </c>
       <c r="AC2" t="n">
-        <v>1515.260810351955</v>
+        <v>1952.646954817842</v>
       </c>
       <c r="AD2" t="n">
-        <v>1224294.07753822</v>
+        <v>1577691.501010475</v>
       </c>
       <c r="AE2" t="n">
-        <v>1675133.168930515</v>
+        <v>2158667.114519234</v>
       </c>
       <c r="AF2" t="n">
         <v>2.675866597962457e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>73</v>
+        <v>72.08333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1515260.810351955</v>
+        <v>1952646.954817842</v>
       </c>
     </row>
     <row r="3">
@@ -55376,28 +55376,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>999.7756230421069</v>
+        <v>1305.36414134997</v>
       </c>
       <c r="AB3" t="n">
-        <v>1367.937114433785</v>
+        <v>1786.056806796546</v>
       </c>
       <c r="AC3" t="n">
-        <v>1237.383116144022</v>
+        <v>1615.598051902356</v>
       </c>
       <c r="AD3" t="n">
-        <v>999775.6230421069</v>
+        <v>1305364.14134997</v>
       </c>
       <c r="AE3" t="n">
-        <v>1367937.114433785</v>
+        <v>1786056.806796546</v>
       </c>
       <c r="AF3" t="n">
         <v>3.137631515576027e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>62</v>
+        <v>61.45833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1237383.116144022</v>
+        <v>1615598.051902356</v>
       </c>
     </row>
     <row r="4">
@@ -55482,28 +55482,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>936.115559482941</v>
+        <v>1222.628347311341</v>
       </c>
       <c r="AB4" t="n">
-        <v>1280.834606988343</v>
+        <v>1672.854043347268</v>
       </c>
       <c r="AC4" t="n">
-        <v>1158.593549760036</v>
+        <v>1513.1992013156</v>
       </c>
       <c r="AD4" t="n">
-        <v>936115.5594829409</v>
+        <v>1222628.347311341</v>
       </c>
       <c r="AE4" t="n">
-        <v>1280834.606988342</v>
+        <v>1672854.043347268</v>
       </c>
       <c r="AF4" t="n">
         <v>3.304637111280695e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>59</v>
+        <v>58.359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1158593.549760036</v>
+        <v>1513199.2013156</v>
       </c>
     </row>
     <row r="5">
@@ -55588,28 +55588,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>898.9537188817675</v>
+        <v>1185.499661099091</v>
       </c>
       <c r="AB5" t="n">
-        <v>1229.988137213117</v>
+        <v>1622.052936869636</v>
       </c>
       <c r="AC5" t="n">
-        <v>1112.59979569669</v>
+        <v>1467.246481140393</v>
       </c>
       <c r="AD5" t="n">
-        <v>898953.7188817675</v>
+        <v>1185499.661099091</v>
       </c>
       <c r="AE5" t="n">
-        <v>1229988.137213117</v>
+        <v>1622052.936869636</v>
       </c>
       <c r="AF5" t="n">
         <v>3.386621676444804e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>57</v>
+        <v>56.953125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1112599.79569669</v>
+        <v>1467246.481140393</v>
       </c>
     </row>
     <row r="6">
@@ -55694,28 +55694,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>886.4436834062981</v>
+        <v>1153.914906174015</v>
       </c>
       <c r="AB6" t="n">
-        <v>1212.871354771766</v>
+        <v>1578.837281760103</v>
       </c>
       <c r="AC6" t="n">
-        <v>1097.116614947986</v>
+        <v>1428.15526750096</v>
       </c>
       <c r="AD6" t="n">
-        <v>886443.683406298</v>
+        <v>1153914.906174015</v>
       </c>
       <c r="AE6" t="n">
-        <v>1212871.354771766</v>
+        <v>1578837.281760103</v>
       </c>
       <c r="AF6" t="n">
         <v>3.443647977417129e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>57</v>
+        <v>56.015625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1097116.614947986</v>
+        <v>1428155.26750096</v>
       </c>
     </row>
     <row r="7">
@@ -55800,28 +55800,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>867.9042056919336</v>
+        <v>1144.82788015243</v>
       </c>
       <c r="AB7" t="n">
-        <v>1187.504823458941</v>
+        <v>1566.404011866076</v>
       </c>
       <c r="AC7" t="n">
-        <v>1074.171029781506</v>
+        <v>1416.908611435415</v>
       </c>
       <c r="AD7" t="n">
-        <v>867904.2056919336</v>
+        <v>1144827.88015243</v>
       </c>
       <c r="AE7" t="n">
-        <v>1187504.823458941</v>
+        <v>1566404.011866076</v>
       </c>
       <c r="AF7" t="n">
         <v>3.478678419442986e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>56</v>
+        <v>55.44270833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1074171.029781506</v>
+        <v>1416908.611435415</v>
       </c>
     </row>
     <row r="8">
@@ -55906,28 +55906,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>859.1853400822804</v>
+        <v>1126.622397431217</v>
       </c>
       <c r="AB8" t="n">
-        <v>1175.57528688261</v>
+        <v>1541.494467237698</v>
       </c>
       <c r="AC8" t="n">
-        <v>1063.38003143281</v>
+        <v>1394.376398785605</v>
       </c>
       <c r="AD8" t="n">
-        <v>859185.3400822803</v>
+        <v>1126622.397431216</v>
       </c>
       <c r="AE8" t="n">
-        <v>1175575.28688261</v>
+        <v>1541494.467237698</v>
       </c>
       <c r="AF8" t="n">
         <v>3.503562623503637e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>56</v>
+        <v>55.05208333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1063380.03143281</v>
+        <v>1394376.398785605</v>
       </c>
     </row>
     <row r="9">
@@ -56012,28 +56012,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>841.9192165872693</v>
+        <v>1109.42359374391</v>
       </c>
       <c r="AB9" t="n">
-        <v>1151.951014989127</v>
+        <v>1517.962305275057</v>
       </c>
       <c r="AC9" t="n">
-        <v>1042.010426891968</v>
+        <v>1373.090113333081</v>
       </c>
       <c r="AD9" t="n">
-        <v>841919.2165872692</v>
+        <v>1109423.59374391</v>
       </c>
       <c r="AE9" t="n">
-        <v>1151951.014989127</v>
+        <v>1517962.305275057</v>
       </c>
       <c r="AF9" t="n">
         <v>3.528372767433156e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>55</v>
+        <v>54.66145833333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1042010.426891968</v>
+        <v>1373090.113333081</v>
       </c>
     </row>
     <row r="10">
@@ -56118,28 +56118,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>835.1238656575445</v>
+        <v>1102.5267575877</v>
       </c>
       <c r="AB10" t="n">
-        <v>1142.653316057353</v>
+        <v>1508.525749779194</v>
       </c>
       <c r="AC10" t="n">
-        <v>1033.60008729684</v>
+        <v>1364.554169449454</v>
       </c>
       <c r="AD10" t="n">
-        <v>835123.8656575445</v>
+        <v>1102526.7575877</v>
       </c>
       <c r="AE10" t="n">
-        <v>1142653.316057353</v>
+        <v>1508525.749779194</v>
       </c>
       <c r="AF10" t="n">
         <v>3.542444192348405e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>55</v>
+        <v>54.453125</v>
       </c>
       <c r="AH10" t="n">
-        <v>1033600.08729684</v>
+        <v>1364554.169449454</v>
       </c>
     </row>
     <row r="11">
@@ -56224,28 +56224,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>829.2998152712788</v>
+        <v>1096.702707201434</v>
       </c>
       <c r="AB11" t="n">
-        <v>1134.684593379895</v>
+        <v>1500.557027101736</v>
       </c>
       <c r="AC11" t="n">
-        <v>1026.391888327546</v>
+        <v>1357.34597048016</v>
       </c>
       <c r="AD11" t="n">
-        <v>829299.8152712788</v>
+        <v>1096702.707201434</v>
       </c>
       <c r="AE11" t="n">
-        <v>1134684.593379895</v>
+        <v>1500557.027101736</v>
       </c>
       <c r="AF11" t="n">
         <v>3.548887423756966e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>55</v>
+        <v>54.34895833333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1026391.888327546</v>
+        <v>1357345.97048016</v>
       </c>
     </row>
     <row r="12">
@@ -56330,28 +56330,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>825.273894231024</v>
+        <v>1092.676786161179</v>
       </c>
       <c r="AB12" t="n">
-        <v>1129.176150601517</v>
+        <v>1495.048584323358</v>
       </c>
       <c r="AC12" t="n">
-        <v>1021.409163596788</v>
+        <v>1352.363245749403</v>
       </c>
       <c r="AD12" t="n">
-        <v>825273.894231024</v>
+        <v>1092676.786161179</v>
       </c>
       <c r="AE12" t="n">
-        <v>1129176.150601517</v>
+        <v>1495048.584323358</v>
       </c>
       <c r="AF12" t="n">
         <v>3.555182534903262e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>55</v>
+        <v>54.24479166666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>1021409.163596788</v>
+        <v>1352363.245749403</v>
       </c>
     </row>
     <row r="13">
@@ -56436,28 +56436,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>823.4482731200741</v>
+        <v>1081.364547938669</v>
       </c>
       <c r="AB13" t="n">
-        <v>1126.678255256796</v>
+        <v>1479.570680926591</v>
       </c>
       <c r="AC13" t="n">
-        <v>1019.14966387795</v>
+        <v>1338.362531729449</v>
       </c>
       <c r="AD13" t="n">
-        <v>823448.2731200741</v>
+        <v>1081364.547938669</v>
       </c>
       <c r="AE13" t="n">
-        <v>1126678.255256796</v>
+        <v>1479570.680926591</v>
       </c>
       <c r="AF13" t="n">
         <v>3.563847570245811e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>55</v>
+        <v>54.11458333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>1019149.66387795</v>
+        <v>1338362.531729449</v>
       </c>
     </row>
   </sheetData>
